--- a/RQ/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RQ/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="9645" windowHeight="4740" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="9645" windowHeight="4740" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Prospetto orario (CON AN)" sheetId="2" r:id="rId1"/>
     <sheet name="Prospetto orario (senza AN) (2)" sheetId="9" r:id="rId2"/>
     <sheet name="1_AN" sheetId="6" r:id="rId3"/>
-    <sheet name="2_PA" sheetId="7" r:id="rId4"/>
+    <sheet name="Consuntivo_2_PA" sheetId="7" r:id="rId4"/>
     <sheet name="3_PDC" sheetId="4" r:id="rId5"/>
     <sheet name="4_VV" sheetId="5" r:id="rId6"/>
     <sheet name="Grafici" sheetId="8" r:id="rId7"/>
@@ -1583,83 +1583,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1688,32 +1611,97 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1971,7 +1959,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2_PA'!$O$2:$O$6</c:f>
+              <c:f>Consuntivo_2_PA!$O$2:$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1994,7 +1982,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2_PA'!$P$25:$P$29</c:f>
+              <c:f>Consuntivo_2_PA!$P$25:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2028,7 +2016,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2_PA'!$O$2:$O$6</c:f>
+              <c:f>Consuntivo_2_PA!$O$2:$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2051,7 +2039,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2_PA'!$P$2:$P$6</c:f>
+              <c:f>Consuntivo_2_PA!$P$2:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>Standard</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2075,25 +2063,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="128247296"/>
-        <c:axId val="128248832"/>
+        <c:axId val="126936192"/>
+        <c:axId val="126937728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="128247296"/>
+        <c:axId val="126936192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128248832"/>
+        <c:crossAx val="126937728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128248832"/>
+        <c:axId val="126937728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2089,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128247296"/>
+        <c:crossAx val="126936192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2137,7 +2125,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2191,7 +2179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2_PA'!$Q$30</c:f>
+              <c:f>Consuntivo_2_PA!$Q$30</c:f>
               <c:numCache>
                 <c:formatCode>"€"\ #,##000</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2231,7 +2219,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2_PA'!$Q$7</c:f>
+              <c:f>Consuntivo_2_PA!$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>"€"\ #,##000</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2243,25 +2231,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="126400000"/>
-        <c:axId val="126401536"/>
+        <c:axId val="126989440"/>
+        <c:axId val="126990976"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="126400000"/>
+        <c:axId val="126989440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126401536"/>
+        <c:crossAx val="126990976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126401536"/>
+        <c:axId val="126990976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2270,7 +2258,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="&quot;€&quot;\ #,##000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126400000"/>
+        <c:crossAx val="126989440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2316,7 +2304,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2776,24 +2764,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="128893312"/>
-        <c:axId val="128894848"/>
+        <c:axId val="127948288"/>
+        <c:axId val="127949824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128893312"/>
+        <c:axId val="127948288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128894848"/>
+        <c:crossAx val="127949824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128894848"/>
+        <c:axId val="127949824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,21 +2789,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128893312"/>
+        <c:crossAx val="127948288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2895,14 +2882,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2982,14 +2968,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3564,19 +3549,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="184" t="str">
+      <c r="AC2" s="190" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="184" t="str">
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="192"/>
+      <c r="AF2" s="190" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="178" t="str">
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="193" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3710,7 +3695,7 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="179"/>
+      <c r="AI3" s="194"/>
     </row>
     <row r="4" spans="1:60">
       <c r="A4" s="139" t="s">
@@ -4593,26 +4578,26 @@
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="184" t="str">
-        <f>'2_PA'!V9</f>
+      <c r="AC12" s="190" t="str">
+        <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="174" t="str">
-        <f>'2_PA'!Y9</f>
+      <c r="AD12" s="195"/>
+      <c r="AE12" s="196"/>
+      <c r="AF12" s="197" t="str">
+        <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="175"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="174" t="str">
-        <f>'2_PA'!AB9</f>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="199"/>
+      <c r="AI12" s="197" t="str">
+        <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="175"/>
-      <c r="AK12" s="177"/>
-      <c r="AL12" s="178" t="str">
-        <f>'2_PA'!AE9</f>
+      <c r="AJ12" s="198"/>
+      <c r="AK12" s="200"/>
+      <c r="AL12" s="193" t="str">
+        <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
       <c r="BG12" s="144">
@@ -4627,42 +4612,42 @@
       </c>
       <c r="AB13" s="141"/>
       <c r="AC13" s="40" t="str">
-        <f>'2_PA'!V10</f>
+        <f>Consuntivo_2_PA!V10</f>
         <v>Ruolo</v>
       </c>
       <c r="AD13" s="41" t="str">
-        <f>'2_PA'!W10</f>
+        <f>Consuntivo_2_PA!W10</f>
         <v>Ore</v>
       </c>
       <c r="AE13" s="42" t="str">
-        <f>'2_PA'!X10</f>
+        <f>Consuntivo_2_PA!X10</f>
         <v>Fase</v>
       </c>
       <c r="AF13" s="40" t="str">
-        <f>'2_PA'!Y10</f>
+        <f>Consuntivo_2_PA!Y10</f>
         <v>Ruolo</v>
       </c>
       <c r="AG13" s="41" t="str">
-        <f>'2_PA'!Z10</f>
+        <f>Consuntivo_2_PA!Z10</f>
         <v>Ore</v>
       </c>
       <c r="AH13" s="42" t="str">
-        <f>'2_PA'!AA10</f>
+        <f>Consuntivo_2_PA!AA10</f>
         <v>Fase</v>
       </c>
       <c r="AI13" s="40" t="str">
-        <f>'2_PA'!AB10</f>
+        <f>Consuntivo_2_PA!AB10</f>
         <v>Ruolo</v>
       </c>
       <c r="AJ13" s="41" t="str">
-        <f>'2_PA'!AC10</f>
+        <f>Consuntivo_2_PA!AC10</f>
         <v>Ore</v>
       </c>
       <c r="AK13" s="43" t="str">
-        <f>'2_PA'!AD10</f>
+        <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="179"/>
+      <c r="AL13" s="194"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -4678,47 +4663,47 @@
         <v>lllllllll</v>
       </c>
       <c r="AB14" s="44" t="str">
-        <f>'2_PA'!U11</f>
+        <f>Consuntivo_2_PA!U11</f>
         <v>Begolo Marco</v>
       </c>
       <c r="AC14" s="45" t="str">
-        <f>'2_PA'!V11</f>
+        <f>Consuntivo_2_PA!V11</f>
         <v>AN</v>
       </c>
       <c r="AD14" s="46">
-        <f>'2_PA'!W11</f>
+        <f>Consuntivo_2_PA!W11</f>
         <v>9</v>
       </c>
       <c r="AE14" s="47" t="str">
-        <f>'2_PA'!X11</f>
+        <f>Consuntivo_2_PA!X11</f>
         <v>PA 1.1</v>
       </c>
       <c r="AF14" s="45" t="str">
-        <f>'2_PA'!Y11</f>
+        <f>Consuntivo_2_PA!Y11</f>
         <v>PR</v>
       </c>
       <c r="AG14" s="46">
-        <f>'2_PA'!Z11</f>
+        <f>Consuntivo_2_PA!Z11</f>
         <v>10</v>
       </c>
       <c r="AH14" s="47" t="str">
-        <f>'2_PA'!AA11</f>
+        <f>Consuntivo_2_PA!AA11</f>
         <v>PA 3.1</v>
       </c>
       <c r="AI14" s="45" t="str">
-        <f>'2_PA'!AB11</f>
+        <f>Consuntivo_2_PA!AB11</f>
         <v>PR</v>
       </c>
       <c r="AJ14" s="46">
-        <f>'2_PA'!AC11</f>
+        <f>Consuntivo_2_PA!AC11</f>
         <v>7</v>
       </c>
       <c r="AK14" s="8" t="str">
-        <f>'2_PA'!AD11</f>
+        <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="180">
-        <f>'2_PA'!AE11</f>
+      <c r="AL14" s="201">
+        <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
       <c r="AO14" s="5">
@@ -4808,46 +4793,46 @@
         <v>0</v>
       </c>
       <c r="AB15" s="49">
-        <f>'2_PA'!U12</f>
+        <f>Consuntivo_2_PA!U12</f>
         <v>0</v>
       </c>
       <c r="AC15" s="50">
-        <f>'2_PA'!V12</f>
+        <f>Consuntivo_2_PA!V12</f>
         <v>0</v>
       </c>
       <c r="AD15" s="51">
-        <f>'2_PA'!W12</f>
+        <f>Consuntivo_2_PA!W12</f>
         <v>0</v>
       </c>
       <c r="AE15" s="52">
-        <f>'2_PA'!X12</f>
+        <f>Consuntivo_2_PA!X12</f>
         <v>0</v>
       </c>
       <c r="AF15" s="50">
-        <f>'2_PA'!Y12</f>
+        <f>Consuntivo_2_PA!Y12</f>
         <v>0</v>
       </c>
       <c r="AG15" s="51">
-        <f>'2_PA'!Z12</f>
+        <f>Consuntivo_2_PA!Z12</f>
         <v>0</v>
       </c>
       <c r="AH15" s="52">
-        <f>'2_PA'!AA12</f>
+        <f>Consuntivo_2_PA!AA12</f>
         <v>0</v>
       </c>
       <c r="AI15" s="50">
-        <f>'2_PA'!AB12</f>
+        <f>Consuntivo_2_PA!AB12</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="51">
-        <f>'2_PA'!AC12</f>
+        <f>Consuntivo_2_PA!AC12</f>
         <v>0</v>
       </c>
       <c r="AK15" s="24">
-        <f>'2_PA'!AD12</f>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="172"/>
+        <f>Consuntivo_2_PA!AD12</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="189"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -4927,47 +4912,47 @@
     </row>
     <row r="16" spans="1:60">
       <c r="AB16" s="44" t="str">
-        <f>'2_PA'!U13</f>
+        <f>Consuntivo_2_PA!U13</f>
         <v>Facchin Gabriele</v>
       </c>
       <c r="AC16" s="45" t="str">
-        <f>'2_PA'!V13</f>
+        <f>Consuntivo_2_PA!V13</f>
         <v>RE</v>
       </c>
       <c r="AD16" s="46">
-        <f>'2_PA'!W13</f>
+        <f>Consuntivo_2_PA!W13</f>
         <v>5</v>
       </c>
       <c r="AE16" s="47" t="str">
-        <f>'2_PA'!X13</f>
+        <f>Consuntivo_2_PA!X13</f>
         <v>PA 1.2 e 2.0</v>
       </c>
       <c r="AF16" s="45" t="str">
-        <f>'2_PA'!Y13</f>
+        <f>Consuntivo_2_PA!Y13</f>
         <v>VE</v>
       </c>
       <c r="AG16" s="46">
-        <f>'2_PA'!Z13</f>
+        <f>Consuntivo_2_PA!Z13</f>
         <v>8</v>
       </c>
       <c r="AH16" s="47" t="str">
-        <f>'2_PA'!AA13</f>
+        <f>Consuntivo_2_PA!AA13</f>
         <v>PA 4.2</v>
       </c>
       <c r="AI16" s="45" t="str">
-        <f>'2_PA'!AB13</f>
+        <f>Consuntivo_2_PA!AB13</f>
         <v>PR</v>
       </c>
       <c r="AJ16" s="46">
-        <f>'2_PA'!AC13</f>
+        <f>Consuntivo_2_PA!AC13</f>
         <v>7</v>
       </c>
       <c r="AK16" s="8" t="str">
-        <f>'2_PA'!AD13</f>
+        <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="172">
-        <f>'2_PA'!AE13</f>
+      <c r="AL16" s="189">
+        <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
       <c r="AO16" s="5">
@@ -5049,46 +5034,46 @@
     </row>
     <row r="17" spans="1:60">
       <c r="AB17" s="44">
-        <f>'2_PA'!U14</f>
+        <f>Consuntivo_2_PA!U14</f>
         <v>0</v>
       </c>
       <c r="AC17" s="45" t="str">
-        <f>'2_PA'!V14</f>
+        <f>Consuntivo_2_PA!V14</f>
         <v>PR</v>
       </c>
       <c r="AD17" s="46">
-        <f>'2_PA'!W14</f>
+        <f>Consuntivo_2_PA!W14</f>
         <v>7</v>
       </c>
       <c r="AE17" s="47" t="str">
-        <f>'2_PA'!X14</f>
+        <f>Consuntivo_2_PA!X14</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF17" s="45">
-        <f>'2_PA'!Y14</f>
+        <f>Consuntivo_2_PA!Y14</f>
         <v>0</v>
       </c>
       <c r="AG17" s="46">
-        <f>'2_PA'!Z14</f>
+        <f>Consuntivo_2_PA!Z14</f>
         <v>0</v>
       </c>
       <c r="AH17" s="47">
-        <f>'2_PA'!AA14</f>
+        <f>Consuntivo_2_PA!AA14</f>
         <v>0</v>
       </c>
       <c r="AI17" s="45">
-        <f>'2_PA'!AB14</f>
+        <f>Consuntivo_2_PA!AB14</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="46">
-        <f>'2_PA'!AC14</f>
+        <f>Consuntivo_2_PA!AC14</f>
         <v>0</v>
       </c>
       <c r="AK17" s="8">
-        <f>'2_PA'!AD14</f>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="172"/>
+        <f>Consuntivo_2_PA!AD14</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="189"/>
       <c r="AO17" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5168,47 +5153,47 @@
     </row>
     <row r="18" spans="1:60">
       <c r="AB18" s="53" t="str">
-        <f>'2_PA'!U15</f>
+        <f>Consuntivo_2_PA!U15</f>
         <v>Cornaglia Alessando</v>
       </c>
       <c r="AC18" s="54" t="str">
-        <f>'2_PA'!V15</f>
+        <f>Consuntivo_2_PA!V15</f>
         <v>AN</v>
       </c>
       <c r="AD18" s="55">
-        <f>'2_PA'!W15</f>
+        <f>Consuntivo_2_PA!W15</f>
         <v>2</v>
       </c>
       <c r="AE18" s="56" t="str">
-        <f>'2_PA'!X15</f>
+        <f>Consuntivo_2_PA!X15</f>
         <v>PA 1.1</v>
       </c>
       <c r="AF18" s="54" t="str">
-        <f>'2_PA'!Y15</f>
+        <f>Consuntivo_2_PA!Y15</f>
         <v>PR</v>
       </c>
       <c r="AG18" s="55">
-        <f>'2_PA'!Z15</f>
+        <f>Consuntivo_2_PA!Z15</f>
         <v>9</v>
       </c>
       <c r="AH18" s="57" t="str">
-        <f>'2_PA'!AA15</f>
+        <f>Consuntivo_2_PA!AA15</f>
         <v>PA 3.2</v>
       </c>
       <c r="AI18" s="54" t="str">
-        <f>'2_PA'!AB15</f>
+        <f>Consuntivo_2_PA!AB15</f>
         <v>VE</v>
       </c>
       <c r="AJ18" s="55">
-        <f>'2_PA'!AC15</f>
+        <f>Consuntivo_2_PA!AC15</f>
         <v>5</v>
       </c>
       <c r="AK18" s="58" t="str">
-        <f>'2_PA'!AD15</f>
+        <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="172">
-        <f>'2_PA'!AE15</f>
+      <c r="AL18" s="189">
+        <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
       <c r="AO18" s="5">
@@ -5290,46 +5275,46 @@
     </row>
     <row r="19" spans="1:60">
       <c r="AB19" s="49">
-        <f>'2_PA'!U16</f>
+        <f>Consuntivo_2_PA!U16</f>
         <v>0</v>
       </c>
       <c r="AC19" s="50" t="str">
-        <f>'2_PA'!V16</f>
+        <f>Consuntivo_2_PA!V16</f>
         <v>PR</v>
       </c>
       <c r="AD19" s="51">
-        <f>'2_PA'!W16</f>
+        <f>Consuntivo_2_PA!W16</f>
         <v>6</v>
       </c>
       <c r="AE19" s="52" t="str">
-        <f>'2_PA'!X16</f>
+        <f>Consuntivo_2_PA!X16</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF19" s="50">
-        <f>'2_PA'!Y16</f>
+        <f>Consuntivo_2_PA!Y16</f>
         <v>0</v>
       </c>
       <c r="AG19" s="51">
-        <f>'2_PA'!Z16</f>
+        <f>Consuntivo_2_PA!Z16</f>
         <v>0</v>
       </c>
       <c r="AH19" s="52">
-        <f>'2_PA'!AA16</f>
+        <f>Consuntivo_2_PA!AA16</f>
         <v>0</v>
       </c>
       <c r="AI19" s="50" t="str">
-        <f>'2_PA'!AB16</f>
+        <f>Consuntivo_2_PA!AB16</f>
         <v>AM</v>
       </c>
       <c r="AJ19" s="51">
-        <f>'2_PA'!AC16</f>
+        <f>Consuntivo_2_PA!AC16</f>
         <v>4</v>
       </c>
       <c r="AK19" s="24" t="str">
-        <f>'2_PA'!AD16</f>
+        <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="172"/>
+      <c r="AL19" s="189"/>
       <c r="AO19" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5409,47 +5394,47 @@
     </row>
     <row r="20" spans="1:60">
       <c r="AB20" s="44" t="str">
-        <f>'2_PA'!U17</f>
+        <f>Consuntivo_2_PA!U17</f>
         <v>Dalla Pietà Massimo</v>
       </c>
       <c r="AC20" s="45" t="str">
-        <f>'2_PA'!V17</f>
+        <f>Consuntivo_2_PA!V17</f>
         <v>VE</v>
       </c>
       <c r="AD20" s="46">
-        <f>'2_PA'!W17</f>
+        <f>Consuntivo_2_PA!W17</f>
         <v>10</v>
       </c>
       <c r="AE20" s="61" t="str">
-        <f>'2_PA'!X17</f>
+        <f>Consuntivo_2_PA!X17</f>
         <v>PA 1.2</v>
       </c>
       <c r="AF20" s="54" t="str">
-        <f>'2_PA'!Y17</f>
+        <f>Consuntivo_2_PA!Y17</f>
         <v>PR</v>
       </c>
       <c r="AG20" s="55">
-        <f>'2_PA'!Z17</f>
+        <f>Consuntivo_2_PA!Z17</f>
         <v>9</v>
       </c>
       <c r="AH20" s="56" t="str">
-        <f>'2_PA'!AA17</f>
+        <f>Consuntivo_2_PA!AA17</f>
         <v>PA 3.2</v>
       </c>
       <c r="AI20" s="45" t="str">
-        <f>'2_PA'!AB17</f>
+        <f>Consuntivo_2_PA!AB17</f>
         <v>RE</v>
       </c>
       <c r="AJ20" s="46">
-        <f>'2_PA'!AC17</f>
+        <f>Consuntivo_2_PA!AC17</f>
         <v>4</v>
       </c>
       <c r="AK20" s="8" t="str">
-        <f>'2_PA'!AD17</f>
+        <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="172">
-        <f>'2_PA'!AE17</f>
+      <c r="AL20" s="189">
+        <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
       <c r="AO20" s="5">
@@ -5531,46 +5516,46 @@
     </row>
     <row r="21" spans="1:60">
       <c r="AB21" s="44">
-        <f>'2_PA'!U18</f>
+        <f>Consuntivo_2_PA!U18</f>
         <v>0</v>
       </c>
       <c r="AC21" s="45" t="str">
-        <f>'2_PA'!V18</f>
+        <f>Consuntivo_2_PA!V18</f>
         <v>PR</v>
       </c>
       <c r="AD21" s="46">
-        <f>'2_PA'!W18</f>
+        <f>Consuntivo_2_PA!W18</f>
         <v>2</v>
       </c>
       <c r="AE21" s="47" t="str">
-        <f>'2_PA'!X18</f>
+        <f>Consuntivo_2_PA!X18</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF21" s="45">
-        <f>'2_PA'!Y18</f>
+        <f>Consuntivo_2_PA!Y18</f>
         <v>0</v>
       </c>
       <c r="AG21" s="46">
-        <f>'2_PA'!Z18</f>
+        <f>Consuntivo_2_PA!Z18</f>
         <v>0</v>
       </c>
       <c r="AH21" s="47">
-        <f>'2_PA'!AA18</f>
+        <f>Consuntivo_2_PA!AA18</f>
         <v>0</v>
       </c>
       <c r="AI21" s="45" t="str">
-        <f>'2_PA'!AB18</f>
+        <f>Consuntivo_2_PA!AB18</f>
         <v>VE</v>
       </c>
       <c r="AJ21" s="46">
-        <f>'2_PA'!AC18</f>
+        <f>Consuntivo_2_PA!AC18</f>
         <v>3</v>
       </c>
       <c r="AK21" s="8" t="str">
-        <f>'2_PA'!AD18</f>
+        <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="172"/>
+      <c r="AL21" s="189"/>
       <c r="AO21" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5650,47 +5635,47 @@
     </row>
     <row r="22" spans="1:60">
       <c r="AB22" s="53" t="str">
-        <f>'2_PA'!U19</f>
+        <f>Consuntivo_2_PA!U19</f>
         <v>Braghetto Lorenzo</v>
       </c>
       <c r="AC22" s="54" t="str">
-        <f>'2_PA'!V19</f>
+        <f>Consuntivo_2_PA!V19</f>
         <v>AM</v>
       </c>
       <c r="AD22" s="55">
-        <f>'2_PA'!W19</f>
+        <f>Consuntivo_2_PA!W19</f>
         <v>5</v>
       </c>
       <c r="AE22" s="56" t="str">
-        <f>'2_PA'!X19</f>
+        <f>Consuntivo_2_PA!X19</f>
         <v>PA 2.0</v>
       </c>
       <c r="AF22" s="54" t="str">
-        <f>'2_PA'!Y19</f>
+        <f>Consuntivo_2_PA!Y19</f>
         <v>PR</v>
       </c>
       <c r="AG22" s="55">
-        <f>'2_PA'!Z19</f>
+        <f>Consuntivo_2_PA!Z19</f>
         <v>10</v>
       </c>
       <c r="AH22" s="56" t="str">
-        <f>'2_PA'!AA19</f>
+        <f>Consuntivo_2_PA!AA19</f>
         <v>PA 3.2</v>
       </c>
       <c r="AI22" s="54" t="str">
-        <f>'2_PA'!AB19</f>
+        <f>Consuntivo_2_PA!AB19</f>
         <v>AM</v>
       </c>
       <c r="AJ22" s="55">
-        <f>'2_PA'!AC19</f>
+        <f>Consuntivo_2_PA!AC19</f>
         <v>6</v>
       </c>
       <c r="AK22" s="18" t="str">
-        <f>'2_PA'!AD19</f>
+        <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="172">
-        <f>'2_PA'!AE19</f>
+      <c r="AL22" s="189">
+        <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
       <c r="AO22" s="5">
@@ -5774,81 +5759,81 @@
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189" t="s">
+      <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189" t="s">
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189" t="s">
+      <c r="I23" s="202"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189" t="s">
+      <c r="L23" s="202"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="189"/>
-      <c r="P23" s="189"/>
-      <c r="Q23" s="189" t="s">
+      <c r="O23" s="202"/>
+      <c r="P23" s="202"/>
+      <c r="Q23" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="189"/>
-      <c r="S23" s="189"/>
+      <c r="R23" s="202"/>
+      <c r="S23" s="202"/>
       <c r="T23" s="150" t="s">
         <v>14</v>
       </c>
       <c r="U23" s="151"/>
       <c r="AB23" s="49">
-        <f>'2_PA'!U20</f>
+        <f>Consuntivo_2_PA!U20</f>
         <v>0</v>
       </c>
       <c r="AC23" s="50" t="str">
-        <f>'2_PA'!V20</f>
+        <f>Consuntivo_2_PA!V20</f>
         <v>PR</v>
       </c>
       <c r="AD23" s="51">
-        <f>'2_PA'!W20</f>
+        <f>Consuntivo_2_PA!W20</f>
         <v>7</v>
       </c>
       <c r="AE23" s="52" t="str">
-        <f>'2_PA'!X20</f>
+        <f>Consuntivo_2_PA!X20</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF23" s="50">
-        <f>'2_PA'!Y20</f>
+        <f>Consuntivo_2_PA!Y20</f>
         <v>0</v>
       </c>
       <c r="AG23" s="51">
-        <f>'2_PA'!Z20</f>
+        <f>Consuntivo_2_PA!Z20</f>
         <v>0</v>
       </c>
       <c r="AH23" s="52">
-        <f>'2_PA'!AA20</f>
+        <f>Consuntivo_2_PA!AA20</f>
         <v>0</v>
       </c>
       <c r="AI23" s="50" t="str">
-        <f>'2_PA'!AB20</f>
+        <f>Consuntivo_2_PA!AB20</f>
         <v>AN</v>
       </c>
       <c r="AJ23" s="51">
-        <f>'2_PA'!AC20</f>
+        <f>Consuntivo_2_PA!AC20</f>
         <v>2</v>
       </c>
       <c r="AK23" s="24">
-        <f>'2_PA'!AD20</f>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="172"/>
+        <f>Consuntivo_2_PA!AD20</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="189"/>
       <c r="AO23" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5927,92 +5912,92 @@
       </c>
     </row>
     <row r="24" spans="1:60">
-      <c r="A24" s="181" t="s">
+      <c r="A24" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="183">
+      <c r="B24" s="186">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183">
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="182">
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="187">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>15</v>
       </c>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183">
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="186">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="182">
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="187">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="183">
+      <c r="O24" s="187"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="186">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="192">
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="184">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>115</v>
       </c>
-      <c r="U24" s="191"/>
+      <c r="U24" s="183"/>
       <c r="AB24" s="44" t="str">
-        <f>'2_PA'!U21</f>
+        <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
       </c>
       <c r="AC24" s="45" t="str">
-        <f>'2_PA'!V21</f>
+        <f>Consuntivo_2_PA!V21</f>
         <v>PR</v>
       </c>
       <c r="AD24" s="46">
-        <f>'2_PA'!W21</f>
+        <f>Consuntivo_2_PA!W21</f>
         <v>12</v>
       </c>
       <c r="AE24" s="47" t="str">
-        <f>'2_PA'!X21</f>
+        <f>Consuntivo_2_PA!X21</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF24" s="45" t="str">
-        <f>'2_PA'!Y21</f>
+        <f>Consuntivo_2_PA!Y21</f>
         <v>PR</v>
       </c>
       <c r="AG24" s="46">
-        <f>'2_PA'!Z21</f>
+        <f>Consuntivo_2_PA!Z21</f>
         <v>10</v>
       </c>
       <c r="AH24" s="61" t="str">
-        <f>'2_PA'!AA21</f>
+        <f>Consuntivo_2_PA!AA21</f>
         <v>PA 3.2</v>
       </c>
       <c r="AI24" s="45" t="str">
-        <f>'2_PA'!AB21</f>
+        <f>Consuntivo_2_PA!AB21</f>
         <v>RE</v>
       </c>
       <c r="AJ24" s="46">
-        <f>'2_PA'!AC21</f>
+        <f>Consuntivo_2_PA!AC21</f>
         <v>6</v>
       </c>
       <c r="AK24" s="73" t="str">
-        <f>'2_PA'!AD21</f>
+        <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="172">
-        <f>'2_PA'!AE21</f>
+      <c r="AL24" s="189">
+        <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
       <c r="AO24" s="5">
@@ -6093,68 +6078,68 @@
       </c>
     </row>
     <row r="25" spans="1:60">
-      <c r="A25" s="181"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="191"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="186"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="184"/>
+      <c r="U25" s="183"/>
       <c r="AB25" s="44">
-        <f>'2_PA'!U22</f>
+        <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
       </c>
       <c r="AC25" s="45">
-        <f>'2_PA'!V22</f>
+        <f>Consuntivo_2_PA!V22</f>
         <v>0</v>
       </c>
       <c r="AD25" s="46">
-        <f>'2_PA'!W22</f>
+        <f>Consuntivo_2_PA!W22</f>
         <v>0</v>
       </c>
       <c r="AE25" s="47">
-        <f>'2_PA'!X22</f>
+        <f>Consuntivo_2_PA!X22</f>
         <v>0</v>
       </c>
       <c r="AF25" s="45">
-        <f>'2_PA'!Y22</f>
+        <f>Consuntivo_2_PA!Y22</f>
         <v>0</v>
       </c>
       <c r="AG25" s="46">
-        <f>'2_PA'!Z22</f>
+        <f>Consuntivo_2_PA!Z22</f>
         <v>0</v>
       </c>
       <c r="AH25" s="47">
-        <f>'2_PA'!AA22</f>
+        <f>Consuntivo_2_PA!AA22</f>
         <v>0</v>
       </c>
       <c r="AI25" s="45">
-        <f>'2_PA'!AB22</f>
+        <f>Consuntivo_2_PA!AB22</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="46">
-        <f>'2_PA'!AC22</f>
+        <f>Consuntivo_2_PA!AC22</f>
         <v>0</v>
       </c>
       <c r="AK25" s="8">
-        <f>'2_PA'!AD22</f>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="172"/>
+        <f>Consuntivo_2_PA!AD22</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="189"/>
       <c r="AO25" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6233,92 +6218,92 @@
       </c>
     </row>
     <row r="26" spans="1:60">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="183">
+      <c r="B26" s="186">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183">
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183">
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="182">
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>41</v>
       </c>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="183">
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="186">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="183">
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="186">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="192">
+      <c r="R26" s="186"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="184">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>116</v>
       </c>
-      <c r="U26" s="191"/>
+      <c r="U26" s="183"/>
       <c r="AB26" s="53" t="str">
-        <f>'2_PA'!U23</f>
+        <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
       </c>
       <c r="AC26" s="54" t="str">
-        <f>'2_PA'!V23</f>
+        <f>Consuntivo_2_PA!V23</f>
         <v>AN</v>
       </c>
       <c r="AD26" s="55">
-        <f>'2_PA'!W23</f>
+        <f>Consuntivo_2_PA!W23</f>
         <v>7</v>
       </c>
       <c r="AE26" s="56" t="str">
-        <f>'2_PA'!X23</f>
+        <f>Consuntivo_2_PA!X23</f>
         <v>PA 1.1</v>
       </c>
       <c r="AF26" s="54" t="str">
-        <f>'2_PA'!Y23</f>
+        <f>Consuntivo_2_PA!Y23</f>
         <v>PR</v>
       </c>
       <c r="AG26" s="55">
-        <f>'2_PA'!Z23</f>
+        <f>Consuntivo_2_PA!Z23</f>
         <v>10</v>
       </c>
       <c r="AH26" s="56" t="str">
-        <f>'2_PA'!AA23</f>
+        <f>Consuntivo_2_PA!AA23</f>
         <v>PA 4.1</v>
       </c>
       <c r="AI26" s="54" t="str">
-        <f>'2_PA'!AB23</f>
+        <f>Consuntivo_2_PA!AB23</f>
         <v>VE</v>
       </c>
       <c r="AJ26" s="55">
-        <f>'2_PA'!AC23</f>
+        <f>Consuntivo_2_PA!AC23</f>
         <v>5</v>
       </c>
       <c r="AK26" s="18" t="str">
-        <f>'2_PA'!AD23</f>
+        <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="172">
-        <f>'2_PA'!AE23</f>
+      <c r="AL26" s="189">
+        <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
       <c r="AO26" s="5">
@@ -6399,68 +6384,68 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A27" s="181"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="192"/>
-      <c r="U27" s="191"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="184"/>
+      <c r="U27" s="183"/>
       <c r="AB27" s="75">
-        <f>'2_PA'!U24</f>
+        <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
       </c>
       <c r="AC27" s="76">
-        <f>'2_PA'!V24</f>
+        <f>Consuntivo_2_PA!V24</f>
         <v>0</v>
       </c>
       <c r="AD27" s="77">
-        <f>'2_PA'!W24</f>
+        <f>Consuntivo_2_PA!W24</f>
         <v>0</v>
       </c>
       <c r="AE27" s="78">
-        <f>'2_PA'!X24</f>
+        <f>Consuntivo_2_PA!X24</f>
         <v>0</v>
       </c>
       <c r="AF27" s="76" t="str">
-        <f>'2_PA'!Y24</f>
+        <f>Consuntivo_2_PA!Y24</f>
         <v>RE</v>
       </c>
       <c r="AG27" s="77">
-        <f>'2_PA'!Z24</f>
+        <f>Consuntivo_2_PA!Z24</f>
         <v>2</v>
       </c>
       <c r="AH27" s="78" t="str">
-        <f>'2_PA'!AA24</f>
+        <f>Consuntivo_2_PA!AA24</f>
         <v>PA 4.2</v>
       </c>
       <c r="AI27" s="76" t="str">
-        <f>'2_PA'!AB24</f>
+        <f>Consuntivo_2_PA!AB24</f>
         <v>AM</v>
       </c>
       <c r="AJ27" s="77">
-        <f>'2_PA'!AC24</f>
+        <f>Consuntivo_2_PA!AC24</f>
         <v>4</v>
       </c>
       <c r="AK27" s="79" t="str">
-        <f>'2_PA'!AD24</f>
+        <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="173"/>
+      <c r="AL27" s="203"/>
       <c r="AO27" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6539,96 +6524,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="183">
+      <c r="B28" s="186">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183">
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183">
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183">
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183">
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="183"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="182">
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="187">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="192">
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="184">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="191"/>
+      <c r="U28" s="183"/>
       <c r="BG28" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60">
-      <c r="A29" s="181"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="192"/>
-      <c r="U29" s="191"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="183"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="174" t="str">
+      <c r="AC29" s="197" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="175"/>
-      <c r="AE29" s="176"/>
-      <c r="AF29" s="174" t="str">
+      <c r="AD29" s="198"/>
+      <c r="AE29" s="199"/>
+      <c r="AF29" s="197" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="175"/>
-      <c r="AH29" s="177"/>
-      <c r="AI29" s="178" t="str">
+      <c r="AG29" s="198"/>
+      <c r="AH29" s="200"/>
+      <c r="AI29" s="193" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6638,50 +6623,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A30" s="181" t="s">
+      <c r="A30" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="183">
+      <c r="B30" s="186">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183">
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183">
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="182">
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182">
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="183">
+      <c r="O30" s="187"/>
+      <c r="P30" s="187"/>
+      <c r="Q30" s="186">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="192">
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="184">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="191"/>
+      <c r="U30" s="183"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -6707,7 +6692,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="179"/>
+      <c r="AI30" s="194"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6718,27 +6703,27 @@
       </c>
     </row>
     <row r="31" spans="1:60">
-      <c r="A31" s="181"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="192"/>
-      <c r="U31" s="191"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="187"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="184"/>
+      <c r="U31" s="183"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6767,7 +6752,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="180">
+      <c r="AI31" s="201">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6853,50 +6838,50 @@
       </c>
     </row>
     <row r="32" spans="1:60">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="183">
+      <c r="B32" s="186">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183">
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183">
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>12</v>
       </c>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183">
+      <c r="I32" s="186"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="186">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="182">
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="187">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="183">
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="186">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="192">
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="184">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>122</v>
       </c>
-      <c r="U32" s="191"/>
+      <c r="U32" s="183"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -6925,7 +6910,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="172"/>
+      <c r="AI32" s="189"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -7004,27 +6989,27 @@
       </c>
     </row>
     <row r="33" spans="1:60">
-      <c r="A33" s="181"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="183"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="192"/>
-      <c r="U33" s="191"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="183"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -7053,7 +7038,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="172">
+      <c r="AI33" s="189">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -7135,50 +7120,50 @@
       </c>
     </row>
     <row r="34" spans="1:60">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="183">
+      <c r="B34" s="186">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183">
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183">
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="182">
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="187">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182">
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="187">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="182"/>
-      <c r="P34" s="182"/>
-      <c r="Q34" s="182">
+      <c r="O34" s="187"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="187">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="182"/>
-      <c r="S34" s="182"/>
-      <c r="T34" s="192">
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
+      <c r="T34" s="184">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="191"/>
+      <c r="U34" s="183"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -7207,7 +7192,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="172"/>
+      <c r="AI34" s="189"/>
       <c r="AO34" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7286,27 +7271,27 @@
       </c>
     </row>
     <row r="35" spans="1:60">
-      <c r="A35" s="181"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="182"/>
-      <c r="O35" s="182"/>
-      <c r="P35" s="182"/>
-      <c r="Q35" s="182"/>
-      <c r="R35" s="182"/>
-      <c r="S35" s="182"/>
-      <c r="T35" s="192"/>
-      <c r="U35" s="191"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="187"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="183"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -7335,7 +7320,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="172">
+      <c r="AI35" s="189">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -7417,50 +7402,50 @@
       </c>
     </row>
     <row r="36" spans="1:60">
-      <c r="A36" s="181" t="s">
+      <c r="A36" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="183">
+      <c r="B36" s="186">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183">
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183">
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="182">
+      <c r="I36" s="186"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="187">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="183">
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="186">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="183"/>
-      <c r="P36" s="183"/>
-      <c r="Q36" s="183">
+      <c r="O36" s="186"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="183"/>
-      <c r="S36" s="183"/>
-      <c r="T36" s="192">
+      <c r="R36" s="186"/>
+      <c r="S36" s="186"/>
+      <c r="T36" s="184">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
         <v>116</v>
       </c>
-      <c r="U36" s="191"/>
+      <c r="U36" s="183"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -7489,7 +7474,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="172"/>
+      <c r="AI36" s="189"/>
       <c r="AO36" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7568,27 +7553,27 @@
       </c>
     </row>
     <row r="37" spans="1:60">
-      <c r="A37" s="181"/>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="183"/>
-      <c r="O37" s="183"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="183"/>
-      <c r="R37" s="183"/>
-      <c r="S37" s="183"/>
-      <c r="T37" s="192"/>
-      <c r="U37" s="191"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="186"/>
+      <c r="O37" s="186"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
+      <c r="S37" s="186"/>
+      <c r="T37" s="184"/>
+      <c r="U37" s="183"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7617,7 +7602,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="172">
+      <c r="AI37" s="189">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7699,50 +7684,50 @@
       </c>
     </row>
     <row r="38" spans="1:60">
-      <c r="A38" s="190" t="s">
+      <c r="A38" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="183">
+      <c r="B38" s="186">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183">
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183">
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183">
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="186">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>235</v>
       </c>
-      <c r="L38" s="183"/>
-      <c r="M38" s="183"/>
-      <c r="N38" s="183">
+      <c r="L38" s="186"/>
+      <c r="M38" s="186"/>
+      <c r="N38" s="186">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="183"/>
-      <c r="P38" s="183"/>
-      <c r="Q38" s="183">
+      <c r="O38" s="186"/>
+      <c r="P38" s="186"/>
+      <c r="Q38" s="186">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="183"/>
-      <c r="S38" s="183"/>
-      <c r="T38" s="192">
+      <c r="R38" s="186"/>
+      <c r="S38" s="186"/>
+      <c r="T38" s="184">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="191"/>
+      <c r="U38" s="183"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7771,7 +7756,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="172"/>
+      <c r="AI38" s="189"/>
       <c r="AO38" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7850,27 +7835,27 @@
       </c>
     </row>
     <row r="39" spans="1:60">
-      <c r="A39" s="190"/>
-      <c r="B39" s="183"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="183"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="183"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="183"/>
-      <c r="S39" s="183"/>
-      <c r="T39" s="192"/>
-      <c r="U39" s="191"/>
+      <c r="A39" s="185"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="186"/>
+      <c r="L39" s="186"/>
+      <c r="M39" s="186"/>
+      <c r="N39" s="186"/>
+      <c r="O39" s="186"/>
+      <c r="P39" s="186"/>
+      <c r="Q39" s="186"/>
+      <c r="R39" s="186"/>
+      <c r="S39" s="186"/>
+      <c r="T39" s="184"/>
+      <c r="U39" s="183"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -7899,7 +7884,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="172">
+      <c r="AI39" s="189">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -8010,7 +7995,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="172"/>
+      <c r="AI40" s="189"/>
       <c r="AO40" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8118,7 +8103,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="172">
+      <c r="AI41" s="189">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -8229,7 +8214,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="172"/>
+      <c r="AI42" s="189"/>
       <c r="AO42" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8337,7 +8322,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="172">
+      <c r="AI43" s="189">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -8448,7 +8433,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="173"/>
+      <c r="AI44" s="203"/>
       <c r="AO44" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8541,19 +8526,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="174" t="str">
+      <c r="AC46" s="197" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="175"/>
-      <c r="AE46" s="176"/>
-      <c r="AF46" s="174" t="str">
+      <c r="AD46" s="198"/>
+      <c r="AE46" s="199"/>
+      <c r="AF46" s="197" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="175"/>
-      <c r="AH46" s="177"/>
-      <c r="AI46" s="178" t="str">
+      <c r="AG46" s="198"/>
+      <c r="AH46" s="200"/>
+      <c r="AI46" s="193" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8593,7 +8578,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="179"/>
+      <c r="AI47" s="194"/>
       <c r="BG47" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -8629,7 +8614,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="180">
+      <c r="AI48" s="201">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8743,7 +8728,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="172"/>
+      <c r="AI49" s="189"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8850,7 +8835,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="172">
+      <c r="AI50" s="189">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -8972,7 +8957,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="172"/>
+      <c r="AI51" s="189"/>
       <c r="AO51" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9093,7 +9078,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="172">
+      <c r="AI52" s="189">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -9217,7 +9202,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="172"/>
+      <c r="AI53" s="189"/>
       <c r="AO53" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9338,7 +9323,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="172">
+      <c r="AI54" s="189">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -9462,7 +9447,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="172"/>
+      <c r="AI55" s="189"/>
       <c r="AO55" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9583,7 +9568,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="172">
+      <c r="AI56" s="189">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9707,7 +9692,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="172"/>
+      <c r="AI57" s="189"/>
       <c r="AO57" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9825,7 +9810,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="172">
+      <c r="AI58" s="189">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -9935,7 +9920,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="172"/>
+      <c r="AI59" s="189"/>
       <c r="AO59" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10042,7 +10027,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="172">
+      <c r="AI60" s="189">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -10152,7 +10137,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="173"/>
+      <c r="AI61" s="203"/>
       <c r="AO61" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10232,22 +10217,78 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -10272,99 +10313,43 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10457,13 +10442,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="140"/>
-      <c r="AC2" s="184"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="185"/>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="178"/>
+      <c r="AC2" s="190"/>
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="192"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="193"/>
       <c r="AJ2" s="5">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -10553,7 +10538,7 @@
       <c r="AF3" s="87"/>
       <c r="AG3" s="88"/>
       <c r="AH3" s="142"/>
-      <c r="AI3" s="179"/>
+      <c r="AI3" s="194"/>
     </row>
     <row r="4" spans="1:60">
       <c r="A4" s="139"/>
@@ -11166,26 +11151,26 @@
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="184" t="str">
-        <f>'2_PA'!V9</f>
+      <c r="AC12" s="190" t="str">
+        <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="174" t="str">
-        <f>'2_PA'!Y9</f>
+      <c r="AD12" s="195"/>
+      <c r="AE12" s="196"/>
+      <c r="AF12" s="197" t="str">
+        <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="175"/>
-      <c r="AH12" s="176"/>
-      <c r="AI12" s="174" t="str">
-        <f>'2_PA'!AB9</f>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="199"/>
+      <c r="AI12" s="197" t="str">
+        <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="175"/>
-      <c r="AK12" s="177"/>
-      <c r="AL12" s="178" t="str">
-        <f>'2_PA'!AE9</f>
+      <c r="AJ12" s="198"/>
+      <c r="AK12" s="200"/>
+      <c r="AL12" s="193" t="str">
+        <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
       <c r="BG12" s="144">
@@ -11196,42 +11181,42 @@
     <row r="13" spans="1:60" ht="13.5" thickBot="1">
       <c r="AB13" s="141"/>
       <c r="AC13" s="40" t="str">
-        <f>'2_PA'!V10</f>
+        <f>Consuntivo_2_PA!V10</f>
         <v>Ruolo</v>
       </c>
       <c r="AD13" s="41" t="str">
-        <f>'2_PA'!W10</f>
+        <f>Consuntivo_2_PA!W10</f>
         <v>Ore</v>
       </c>
       <c r="AE13" s="42" t="str">
-        <f>'2_PA'!X10</f>
+        <f>Consuntivo_2_PA!X10</f>
         <v>Fase</v>
       </c>
       <c r="AF13" s="40" t="str">
-        <f>'2_PA'!Y10</f>
+        <f>Consuntivo_2_PA!Y10</f>
         <v>Ruolo</v>
       </c>
       <c r="AG13" s="41" t="str">
-        <f>'2_PA'!Z10</f>
+        <f>Consuntivo_2_PA!Z10</f>
         <v>Ore</v>
       </c>
       <c r="AH13" s="42" t="str">
-        <f>'2_PA'!AA10</f>
+        <f>Consuntivo_2_PA!AA10</f>
         <v>Fase</v>
       </c>
       <c r="AI13" s="40" t="str">
-        <f>'2_PA'!AB10</f>
+        <f>Consuntivo_2_PA!AB10</f>
         <v>Ruolo</v>
       </c>
       <c r="AJ13" s="41" t="str">
-        <f>'2_PA'!AC10</f>
+        <f>Consuntivo_2_PA!AC10</f>
         <v>Ore</v>
       </c>
       <c r="AK13" s="43" t="str">
-        <f>'2_PA'!AD10</f>
+        <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="179"/>
+      <c r="AL13" s="194"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -11243,47 +11228,47 @@
     </row>
     <row r="14" spans="1:60">
       <c r="AB14" s="44" t="str">
-        <f>'2_PA'!U11</f>
+        <f>Consuntivo_2_PA!U11</f>
         <v>Begolo Marco</v>
       </c>
       <c r="AC14" s="45" t="str">
-        <f>'2_PA'!V11</f>
+        <f>Consuntivo_2_PA!V11</f>
         <v>AN</v>
       </c>
       <c r="AD14" s="46">
-        <f>'2_PA'!W11</f>
+        <f>Consuntivo_2_PA!W11</f>
         <v>9</v>
       </c>
       <c r="AE14" s="47" t="str">
-        <f>'2_PA'!X11</f>
+        <f>Consuntivo_2_PA!X11</f>
         <v>PA 1.1</v>
       </c>
       <c r="AF14" s="45" t="str">
-        <f>'2_PA'!Y11</f>
+        <f>Consuntivo_2_PA!Y11</f>
         <v>PR</v>
       </c>
       <c r="AG14" s="46">
-        <f>'2_PA'!Z11</f>
+        <f>Consuntivo_2_PA!Z11</f>
         <v>10</v>
       </c>
       <c r="AH14" s="47" t="str">
-        <f>'2_PA'!AA11</f>
+        <f>Consuntivo_2_PA!AA11</f>
         <v>PA 3.1</v>
       </c>
       <c r="AI14" s="45" t="str">
-        <f>'2_PA'!AB11</f>
+        <f>Consuntivo_2_PA!AB11</f>
         <v>PR</v>
       </c>
       <c r="AJ14" s="46">
-        <f>'2_PA'!AC11</f>
+        <f>Consuntivo_2_PA!AC11</f>
         <v>7</v>
       </c>
       <c r="AK14" s="8" t="str">
-        <f>'2_PA'!AD11</f>
+        <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="180">
-        <f>'2_PA'!AE11</f>
+      <c r="AL14" s="201">
+        <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
       <c r="AO14" s="5">
@@ -11369,46 +11354,46 @@
     </row>
     <row r="15" spans="1:60">
       <c r="AB15" s="49">
-        <f>'2_PA'!U12</f>
+        <f>Consuntivo_2_PA!U12</f>
         <v>0</v>
       </c>
       <c r="AC15" s="50">
-        <f>'2_PA'!V12</f>
+        <f>Consuntivo_2_PA!V12</f>
         <v>0</v>
       </c>
       <c r="AD15" s="51">
-        <f>'2_PA'!W12</f>
+        <f>Consuntivo_2_PA!W12</f>
         <v>0</v>
       </c>
       <c r="AE15" s="52">
-        <f>'2_PA'!X12</f>
+        <f>Consuntivo_2_PA!X12</f>
         <v>0</v>
       </c>
       <c r="AF15" s="50">
-        <f>'2_PA'!Y12</f>
+        <f>Consuntivo_2_PA!Y12</f>
         <v>0</v>
       </c>
       <c r="AG15" s="51">
-        <f>'2_PA'!Z12</f>
+        <f>Consuntivo_2_PA!Z12</f>
         <v>0</v>
       </c>
       <c r="AH15" s="52">
-        <f>'2_PA'!AA12</f>
+        <f>Consuntivo_2_PA!AA12</f>
         <v>0</v>
       </c>
       <c r="AI15" s="50">
-        <f>'2_PA'!AB12</f>
+        <f>Consuntivo_2_PA!AB12</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="51">
-        <f>'2_PA'!AC12</f>
+        <f>Consuntivo_2_PA!AC12</f>
         <v>0</v>
       </c>
       <c r="AK15" s="24">
-        <f>'2_PA'!AD12</f>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="172"/>
+        <f>Consuntivo_2_PA!AD12</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="189"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -11488,47 +11473,47 @@
     </row>
     <row r="16" spans="1:60">
       <c r="AB16" s="44" t="str">
-        <f>'2_PA'!U13</f>
+        <f>Consuntivo_2_PA!U13</f>
         <v>Facchin Gabriele</v>
       </c>
       <c r="AC16" s="45" t="str">
-        <f>'2_PA'!V13</f>
+        <f>Consuntivo_2_PA!V13</f>
         <v>RE</v>
       </c>
       <c r="AD16" s="46">
-        <f>'2_PA'!W13</f>
+        <f>Consuntivo_2_PA!W13</f>
         <v>5</v>
       </c>
       <c r="AE16" s="47" t="str">
-        <f>'2_PA'!X13</f>
+        <f>Consuntivo_2_PA!X13</f>
         <v>PA 1.2 e 2.0</v>
       </c>
       <c r="AF16" s="45" t="str">
-        <f>'2_PA'!Y13</f>
+        <f>Consuntivo_2_PA!Y13</f>
         <v>VE</v>
       </c>
       <c r="AG16" s="46">
-        <f>'2_PA'!Z13</f>
+        <f>Consuntivo_2_PA!Z13</f>
         <v>8</v>
       </c>
       <c r="AH16" s="47" t="str">
-        <f>'2_PA'!AA13</f>
+        <f>Consuntivo_2_PA!AA13</f>
         <v>PA 4.2</v>
       </c>
       <c r="AI16" s="45" t="str">
-        <f>'2_PA'!AB13</f>
+        <f>Consuntivo_2_PA!AB13</f>
         <v>PR</v>
       </c>
       <c r="AJ16" s="46">
-        <f>'2_PA'!AC13</f>
+        <f>Consuntivo_2_PA!AC13</f>
         <v>7</v>
       </c>
       <c r="AK16" s="8" t="str">
-        <f>'2_PA'!AD13</f>
+        <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="172">
-        <f>'2_PA'!AE13</f>
+      <c r="AL16" s="189">
+        <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
       <c r="AO16" s="5">
@@ -11610,46 +11595,46 @@
     </row>
     <row r="17" spans="1:60">
       <c r="AB17" s="44">
-        <f>'2_PA'!U14</f>
+        <f>Consuntivo_2_PA!U14</f>
         <v>0</v>
       </c>
       <c r="AC17" s="45" t="str">
-        <f>'2_PA'!V14</f>
+        <f>Consuntivo_2_PA!V14</f>
         <v>PR</v>
       </c>
       <c r="AD17" s="46">
-        <f>'2_PA'!W14</f>
+        <f>Consuntivo_2_PA!W14</f>
         <v>7</v>
       </c>
       <c r="AE17" s="47" t="str">
-        <f>'2_PA'!X14</f>
+        <f>Consuntivo_2_PA!X14</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF17" s="45">
-        <f>'2_PA'!Y14</f>
+        <f>Consuntivo_2_PA!Y14</f>
         <v>0</v>
       </c>
       <c r="AG17" s="46">
-        <f>'2_PA'!Z14</f>
+        <f>Consuntivo_2_PA!Z14</f>
         <v>0</v>
       </c>
       <c r="AH17" s="47">
-        <f>'2_PA'!AA14</f>
+        <f>Consuntivo_2_PA!AA14</f>
         <v>0</v>
       </c>
       <c r="AI17" s="45">
-        <f>'2_PA'!AB14</f>
+        <f>Consuntivo_2_PA!AB14</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="46">
-        <f>'2_PA'!AC14</f>
+        <f>Consuntivo_2_PA!AC14</f>
         <v>0</v>
       </c>
       <c r="AK17" s="8">
-        <f>'2_PA'!AD14</f>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="172"/>
+        <f>Consuntivo_2_PA!AD14</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="189"/>
       <c r="AO17" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11729,47 +11714,47 @@
     </row>
     <row r="18" spans="1:60">
       <c r="AB18" s="53" t="str">
-        <f>'2_PA'!U15</f>
+        <f>Consuntivo_2_PA!U15</f>
         <v>Cornaglia Alessando</v>
       </c>
       <c r="AC18" s="54" t="str">
-        <f>'2_PA'!V15</f>
+        <f>Consuntivo_2_PA!V15</f>
         <v>AN</v>
       </c>
       <c r="AD18" s="55">
-        <f>'2_PA'!W15</f>
+        <f>Consuntivo_2_PA!W15</f>
         <v>2</v>
       </c>
       <c r="AE18" s="56" t="str">
-        <f>'2_PA'!X15</f>
+        <f>Consuntivo_2_PA!X15</f>
         <v>PA 1.1</v>
       </c>
       <c r="AF18" s="54" t="str">
-        <f>'2_PA'!Y15</f>
+        <f>Consuntivo_2_PA!Y15</f>
         <v>PR</v>
       </c>
       <c r="AG18" s="55">
-        <f>'2_PA'!Z15</f>
+        <f>Consuntivo_2_PA!Z15</f>
         <v>9</v>
       </c>
       <c r="AH18" s="57" t="str">
-        <f>'2_PA'!AA15</f>
+        <f>Consuntivo_2_PA!AA15</f>
         <v>PA 3.2</v>
       </c>
       <c r="AI18" s="54" t="str">
-        <f>'2_PA'!AB15</f>
+        <f>Consuntivo_2_PA!AB15</f>
         <v>VE</v>
       </c>
       <c r="AJ18" s="55">
-        <f>'2_PA'!AC15</f>
+        <f>Consuntivo_2_PA!AC15</f>
         <v>5</v>
       </c>
       <c r="AK18" s="58" t="str">
-        <f>'2_PA'!AD15</f>
+        <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="172">
-        <f>'2_PA'!AE15</f>
+      <c r="AL18" s="189">
+        <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
       <c r="AO18" s="5">
@@ -11851,46 +11836,46 @@
     </row>
     <row r="19" spans="1:60">
       <c r="AB19" s="49">
-        <f>'2_PA'!U16</f>
+        <f>Consuntivo_2_PA!U16</f>
         <v>0</v>
       </c>
       <c r="AC19" s="50" t="str">
-        <f>'2_PA'!V16</f>
+        <f>Consuntivo_2_PA!V16</f>
         <v>PR</v>
       </c>
       <c r="AD19" s="51">
-        <f>'2_PA'!W16</f>
+        <f>Consuntivo_2_PA!W16</f>
         <v>6</v>
       </c>
       <c r="AE19" s="52" t="str">
-        <f>'2_PA'!X16</f>
+        <f>Consuntivo_2_PA!X16</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF19" s="50">
-        <f>'2_PA'!Y16</f>
+        <f>Consuntivo_2_PA!Y16</f>
         <v>0</v>
       </c>
       <c r="AG19" s="51">
-        <f>'2_PA'!Z16</f>
+        <f>Consuntivo_2_PA!Z16</f>
         <v>0</v>
       </c>
       <c r="AH19" s="52">
-        <f>'2_PA'!AA16</f>
+        <f>Consuntivo_2_PA!AA16</f>
         <v>0</v>
       </c>
       <c r="AI19" s="50" t="str">
-        <f>'2_PA'!AB16</f>
+        <f>Consuntivo_2_PA!AB16</f>
         <v>AM</v>
       </c>
       <c r="AJ19" s="51">
-        <f>'2_PA'!AC16</f>
+        <f>Consuntivo_2_PA!AC16</f>
         <v>4</v>
       </c>
       <c r="AK19" s="24" t="str">
-        <f>'2_PA'!AD16</f>
+        <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="172"/>
+      <c r="AL19" s="189"/>
       <c r="AO19" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11970,47 +11955,47 @@
     </row>
     <row r="20" spans="1:60">
       <c r="AB20" s="44" t="str">
-        <f>'2_PA'!U17</f>
+        <f>Consuntivo_2_PA!U17</f>
         <v>Dalla Pietà Massimo</v>
       </c>
       <c r="AC20" s="45" t="str">
-        <f>'2_PA'!V17</f>
+        <f>Consuntivo_2_PA!V17</f>
         <v>VE</v>
       </c>
       <c r="AD20" s="46">
-        <f>'2_PA'!W17</f>
+        <f>Consuntivo_2_PA!W17</f>
         <v>10</v>
       </c>
       <c r="AE20" s="61" t="str">
-        <f>'2_PA'!X17</f>
+        <f>Consuntivo_2_PA!X17</f>
         <v>PA 1.2</v>
       </c>
       <c r="AF20" s="54" t="str">
-        <f>'2_PA'!Y17</f>
+        <f>Consuntivo_2_PA!Y17</f>
         <v>PR</v>
       </c>
       <c r="AG20" s="55">
-        <f>'2_PA'!Z17</f>
+        <f>Consuntivo_2_PA!Z17</f>
         <v>9</v>
       </c>
       <c r="AH20" s="56" t="str">
-        <f>'2_PA'!AA17</f>
+        <f>Consuntivo_2_PA!AA17</f>
         <v>PA 3.2</v>
       </c>
       <c r="AI20" s="45" t="str">
-        <f>'2_PA'!AB17</f>
+        <f>Consuntivo_2_PA!AB17</f>
         <v>RE</v>
       </c>
       <c r="AJ20" s="46">
-        <f>'2_PA'!AC17</f>
+        <f>Consuntivo_2_PA!AC17</f>
         <v>4</v>
       </c>
       <c r="AK20" s="8" t="str">
-        <f>'2_PA'!AD17</f>
+        <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="172">
-        <f>'2_PA'!AE17</f>
+      <c r="AL20" s="189">
+        <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
       <c r="AO20" s="5">
@@ -12092,46 +12077,46 @@
     </row>
     <row r="21" spans="1:60">
       <c r="AB21" s="44">
-        <f>'2_PA'!U18</f>
+        <f>Consuntivo_2_PA!U18</f>
         <v>0</v>
       </c>
       <c r="AC21" s="45" t="str">
-        <f>'2_PA'!V18</f>
+        <f>Consuntivo_2_PA!V18</f>
         <v>PR</v>
       </c>
       <c r="AD21" s="46">
-        <f>'2_PA'!W18</f>
+        <f>Consuntivo_2_PA!W18</f>
         <v>2</v>
       </c>
       <c r="AE21" s="47" t="str">
-        <f>'2_PA'!X18</f>
+        <f>Consuntivo_2_PA!X18</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF21" s="45">
-        <f>'2_PA'!Y18</f>
+        <f>Consuntivo_2_PA!Y18</f>
         <v>0</v>
       </c>
       <c r="AG21" s="46">
-        <f>'2_PA'!Z18</f>
+        <f>Consuntivo_2_PA!Z18</f>
         <v>0</v>
       </c>
       <c r="AH21" s="47">
-        <f>'2_PA'!AA18</f>
+        <f>Consuntivo_2_PA!AA18</f>
         <v>0</v>
       </c>
       <c r="AI21" s="45" t="str">
-        <f>'2_PA'!AB18</f>
+        <f>Consuntivo_2_PA!AB18</f>
         <v>VE</v>
       </c>
       <c r="AJ21" s="46">
-        <f>'2_PA'!AC18</f>
+        <f>Consuntivo_2_PA!AC18</f>
         <v>3</v>
       </c>
       <c r="AK21" s="8" t="str">
-        <f>'2_PA'!AD18</f>
+        <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="172"/>
+      <c r="AL21" s="189"/>
       <c r="AO21" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12211,47 +12196,47 @@
     </row>
     <row r="22" spans="1:60">
       <c r="AB22" s="53" t="str">
-        <f>'2_PA'!U19</f>
+        <f>Consuntivo_2_PA!U19</f>
         <v>Braghetto Lorenzo</v>
       </c>
       <c r="AC22" s="54" t="str">
-        <f>'2_PA'!V19</f>
+        <f>Consuntivo_2_PA!V19</f>
         <v>AM</v>
       </c>
       <c r="AD22" s="55">
-        <f>'2_PA'!W19</f>
+        <f>Consuntivo_2_PA!W19</f>
         <v>5</v>
       </c>
       <c r="AE22" s="56" t="str">
-        <f>'2_PA'!X19</f>
+        <f>Consuntivo_2_PA!X19</f>
         <v>PA 2.0</v>
       </c>
       <c r="AF22" s="54" t="str">
-        <f>'2_PA'!Y19</f>
+        <f>Consuntivo_2_PA!Y19</f>
         <v>PR</v>
       </c>
       <c r="AG22" s="55">
-        <f>'2_PA'!Z19</f>
+        <f>Consuntivo_2_PA!Z19</f>
         <v>10</v>
       </c>
       <c r="AH22" s="56" t="str">
-        <f>'2_PA'!AA19</f>
+        <f>Consuntivo_2_PA!AA19</f>
         <v>PA 3.2</v>
       </c>
       <c r="AI22" s="54" t="str">
-        <f>'2_PA'!AB19</f>
+        <f>Consuntivo_2_PA!AB19</f>
         <v>AM</v>
       </c>
       <c r="AJ22" s="55">
-        <f>'2_PA'!AC19</f>
+        <f>Consuntivo_2_PA!AC19</f>
         <v>6</v>
       </c>
       <c r="AK22" s="18" t="str">
-        <f>'2_PA'!AD19</f>
+        <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="172">
-        <f>'2_PA'!AE19</f>
+      <c r="AL22" s="189">
+        <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
       <c r="AO22" s="5">
@@ -12335,81 +12320,81 @@
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="189"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="189" t="s">
+      <c r="C23" s="202"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="189"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="189" t="s">
+      <c r="F23" s="202"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="189"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="189" t="s">
+      <c r="I23" s="202"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="202" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189" t="s">
+      <c r="L23" s="202"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="189"/>
-      <c r="P23" s="189"/>
-      <c r="Q23" s="189" t="s">
+      <c r="O23" s="202"/>
+      <c r="P23" s="202"/>
+      <c r="Q23" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="189"/>
-      <c r="S23" s="189"/>
+      <c r="R23" s="202"/>
+      <c r="S23" s="202"/>
       <c r="T23" s="149" t="s">
         <v>14</v>
       </c>
       <c r="U23" s="151"/>
       <c r="AB23" s="49">
-        <f>'2_PA'!U20</f>
+        <f>Consuntivo_2_PA!U20</f>
         <v>0</v>
       </c>
       <c r="AC23" s="50" t="str">
-        <f>'2_PA'!V20</f>
+        <f>Consuntivo_2_PA!V20</f>
         <v>PR</v>
       </c>
       <c r="AD23" s="51">
-        <f>'2_PA'!W20</f>
+        <f>Consuntivo_2_PA!W20</f>
         <v>7</v>
       </c>
       <c r="AE23" s="52" t="str">
-        <f>'2_PA'!X20</f>
+        <f>Consuntivo_2_PA!X20</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF23" s="50">
-        <f>'2_PA'!Y20</f>
+        <f>Consuntivo_2_PA!Y20</f>
         <v>0</v>
       </c>
       <c r="AG23" s="51">
-        <f>'2_PA'!Z20</f>
+        <f>Consuntivo_2_PA!Z20</f>
         <v>0</v>
       </c>
       <c r="AH23" s="52">
-        <f>'2_PA'!AA20</f>
+        <f>Consuntivo_2_PA!AA20</f>
         <v>0</v>
       </c>
       <c r="AI23" s="50" t="str">
-        <f>'2_PA'!AB20</f>
+        <f>Consuntivo_2_PA!AB20</f>
         <v>AN</v>
       </c>
       <c r="AJ23" s="51">
-        <f>'2_PA'!AC20</f>
+        <f>Consuntivo_2_PA!AC20</f>
         <v>2</v>
       </c>
       <c r="AK23" s="24">
-        <f>'2_PA'!AD20</f>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="172"/>
+        <f>Consuntivo_2_PA!AD20</f>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="189"/>
       <c r="AO23" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12488,92 +12473,92 @@
       </c>
     </row>
     <row r="24" spans="1:60">
-      <c r="A24" s="181" t="s">
+      <c r="A24" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="183">
+      <c r="B24" s="186">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183">
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="182">
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="187">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="182"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183">
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="186">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="182">
+      <c r="L24" s="186"/>
+      <c r="M24" s="186"/>
+      <c r="N24" s="187">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="182"/>
-      <c r="P24" s="182"/>
-      <c r="Q24" s="183">
+      <c r="O24" s="187"/>
+      <c r="P24" s="187"/>
+      <c r="Q24" s="186">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="183"/>
-      <c r="S24" s="183"/>
-      <c r="T24" s="183">
+      <c r="R24" s="186"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="186">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>96</v>
       </c>
-      <c r="U24" s="191"/>
+      <c r="U24" s="183"/>
       <c r="AB24" s="44" t="str">
-        <f>'2_PA'!U21</f>
+        <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
       </c>
       <c r="AC24" s="45" t="str">
-        <f>'2_PA'!V21</f>
+        <f>Consuntivo_2_PA!V21</f>
         <v>PR</v>
       </c>
       <c r="AD24" s="46">
-        <f>'2_PA'!W21</f>
+        <f>Consuntivo_2_PA!W21</f>
         <v>12</v>
       </c>
       <c r="AE24" s="47" t="str">
-        <f>'2_PA'!X21</f>
+        <f>Consuntivo_2_PA!X21</f>
         <v>PA 3.1</v>
       </c>
       <c r="AF24" s="45" t="str">
-        <f>'2_PA'!Y21</f>
+        <f>Consuntivo_2_PA!Y21</f>
         <v>PR</v>
       </c>
       <c r="AG24" s="46">
-        <f>'2_PA'!Z21</f>
+        <f>Consuntivo_2_PA!Z21</f>
         <v>10</v>
       </c>
       <c r="AH24" s="61" t="str">
-        <f>'2_PA'!AA21</f>
+        <f>Consuntivo_2_PA!AA21</f>
         <v>PA 3.2</v>
       </c>
       <c r="AI24" s="45" t="str">
-        <f>'2_PA'!AB21</f>
+        <f>Consuntivo_2_PA!AB21</f>
         <v>RE</v>
       </c>
       <c r="AJ24" s="46">
-        <f>'2_PA'!AC21</f>
+        <f>Consuntivo_2_PA!AC21</f>
         <v>6</v>
       </c>
       <c r="AK24" s="73" t="str">
-        <f>'2_PA'!AD21</f>
+        <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="172">
-        <f>'2_PA'!AE21</f>
+      <c r="AL24" s="189">
+        <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
       <c r="AO24" s="5">
@@ -12654,68 +12639,68 @@
       </c>
     </row>
     <row r="25" spans="1:60">
-      <c r="A25" s="181"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="183"/>
-      <c r="R25" s="183"/>
-      <c r="S25" s="183"/>
-      <c r="T25" s="183"/>
-      <c r="U25" s="191"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="187"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="186"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="186"/>
+      <c r="U25" s="183"/>
       <c r="AB25" s="44">
-        <f>'2_PA'!U22</f>
+        <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
       </c>
       <c r="AC25" s="45">
-        <f>'2_PA'!V22</f>
+        <f>Consuntivo_2_PA!V22</f>
         <v>0</v>
       </c>
       <c r="AD25" s="46">
-        <f>'2_PA'!W22</f>
+        <f>Consuntivo_2_PA!W22</f>
         <v>0</v>
       </c>
       <c r="AE25" s="47">
-        <f>'2_PA'!X22</f>
+        <f>Consuntivo_2_PA!X22</f>
         <v>0</v>
       </c>
       <c r="AF25" s="45">
-        <f>'2_PA'!Y22</f>
+        <f>Consuntivo_2_PA!Y22</f>
         <v>0</v>
       </c>
       <c r="AG25" s="46">
-        <f>'2_PA'!Z22</f>
+        <f>Consuntivo_2_PA!Z22</f>
         <v>0</v>
       </c>
       <c r="AH25" s="47">
-        <f>'2_PA'!AA22</f>
+        <f>Consuntivo_2_PA!AA22</f>
         <v>0</v>
       </c>
       <c r="AI25" s="45">
-        <f>'2_PA'!AB22</f>
+        <f>Consuntivo_2_PA!AB22</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="46">
-        <f>'2_PA'!AC22</f>
+        <f>Consuntivo_2_PA!AC22</f>
         <v>0</v>
       </c>
       <c r="AK25" s="8">
-        <f>'2_PA'!AD22</f>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="172"/>
+        <f>Consuntivo_2_PA!AD22</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="189"/>
       <c r="AO25" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12794,92 +12779,92 @@
       </c>
     </row>
     <row r="26" spans="1:60">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="183">
+      <c r="B26" s="186">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183">
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183">
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="182">
+      <c r="I26" s="186"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>33</v>
       </c>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="183">
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="186">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="183">
+      <c r="O26" s="186"/>
+      <c r="P26" s="186"/>
+      <c r="Q26" s="186">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183">
+      <c r="R26" s="186"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="186">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>97</v>
       </c>
-      <c r="U26" s="191"/>
+      <c r="U26" s="183"/>
       <c r="AB26" s="53" t="str">
-        <f>'2_PA'!U23</f>
+        <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
       </c>
       <c r="AC26" s="54" t="str">
-        <f>'2_PA'!V23</f>
+        <f>Consuntivo_2_PA!V23</f>
         <v>AN</v>
       </c>
       <c r="AD26" s="55">
-        <f>'2_PA'!W23</f>
+        <f>Consuntivo_2_PA!W23</f>
         <v>7</v>
       </c>
       <c r="AE26" s="56" t="str">
-        <f>'2_PA'!X23</f>
+        <f>Consuntivo_2_PA!X23</f>
         <v>PA 1.1</v>
       </c>
       <c r="AF26" s="54" t="str">
-        <f>'2_PA'!Y23</f>
+        <f>Consuntivo_2_PA!Y23</f>
         <v>PR</v>
       </c>
       <c r="AG26" s="55">
-        <f>'2_PA'!Z23</f>
+        <f>Consuntivo_2_PA!Z23</f>
         <v>10</v>
       </c>
       <c r="AH26" s="56" t="str">
-        <f>'2_PA'!AA23</f>
+        <f>Consuntivo_2_PA!AA23</f>
         <v>PA 4.1</v>
       </c>
       <c r="AI26" s="54" t="str">
-        <f>'2_PA'!AB23</f>
+        <f>Consuntivo_2_PA!AB23</f>
         <v>VE</v>
       </c>
       <c r="AJ26" s="55">
-        <f>'2_PA'!AC23</f>
+        <f>Consuntivo_2_PA!AC23</f>
         <v>5</v>
       </c>
       <c r="AK26" s="18" t="str">
-        <f>'2_PA'!AD23</f>
+        <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="172">
-        <f>'2_PA'!AE23</f>
+      <c r="AL26" s="189">
+        <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
       <c r="AO26" s="5">
@@ -12960,68 +12945,68 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A27" s="181"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
-      <c r="T27" s="183"/>
-      <c r="U27" s="191"/>
+      <c r="A27" s="188"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="186"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="183"/>
       <c r="AB27" s="75">
-        <f>'2_PA'!U24</f>
+        <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
       </c>
       <c r="AC27" s="76">
-        <f>'2_PA'!V24</f>
+        <f>Consuntivo_2_PA!V24</f>
         <v>0</v>
       </c>
       <c r="AD27" s="77">
-        <f>'2_PA'!W24</f>
+        <f>Consuntivo_2_PA!W24</f>
         <v>0</v>
       </c>
       <c r="AE27" s="78">
-        <f>'2_PA'!X24</f>
+        <f>Consuntivo_2_PA!X24</f>
         <v>0</v>
       </c>
       <c r="AF27" s="76" t="str">
-        <f>'2_PA'!Y24</f>
+        <f>Consuntivo_2_PA!Y24</f>
         <v>RE</v>
       </c>
       <c r="AG27" s="77">
-        <f>'2_PA'!Z24</f>
+        <f>Consuntivo_2_PA!Z24</f>
         <v>2</v>
       </c>
       <c r="AH27" s="78" t="str">
-        <f>'2_PA'!AA24</f>
+        <f>Consuntivo_2_PA!AA24</f>
         <v>PA 4.2</v>
       </c>
       <c r="AI27" s="76" t="str">
-        <f>'2_PA'!AB24</f>
+        <f>Consuntivo_2_PA!AB24</f>
         <v>AM</v>
       </c>
       <c r="AJ27" s="77">
-        <f>'2_PA'!AC24</f>
+        <f>Consuntivo_2_PA!AC24</f>
         <v>4</v>
       </c>
       <c r="AK27" s="79" t="str">
-        <f>'2_PA'!AD24</f>
+        <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="173"/>
+      <c r="AL27" s="203"/>
       <c r="AO27" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13100,96 +13085,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="188" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="183">
+      <c r="B28" s="186">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183">
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183">
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="183"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183">
+      <c r="I28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="186">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183">
+      <c r="L28" s="186"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="186">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="183"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="182">
+      <c r="O28" s="186"/>
+      <c r="P28" s="186"/>
+      <c r="Q28" s="187">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="183">
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="186">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="191"/>
+      <c r="U28" s="183"/>
       <c r="BG28" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60">
-      <c r="A29" s="181"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="182"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="183"/>
-      <c r="U29" s="191"/>
+      <c r="A29" s="188"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="186"/>
+      <c r="L29" s="186"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="186"/>
+      <c r="O29" s="186"/>
+      <c r="P29" s="186"/>
+      <c r="Q29" s="187"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="186"/>
+      <c r="U29" s="183"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="174" t="str">
+      <c r="AC29" s="197" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="175"/>
-      <c r="AE29" s="176"/>
-      <c r="AF29" s="174" t="str">
+      <c r="AD29" s="198"/>
+      <c r="AE29" s="199"/>
+      <c r="AF29" s="197" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="175"/>
-      <c r="AH29" s="177"/>
-      <c r="AI29" s="178" t="str">
+      <c r="AG29" s="198"/>
+      <c r="AH29" s="200"/>
+      <c r="AI29" s="193" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -13199,50 +13184,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A30" s="181" t="s">
+      <c r="A30" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="183">
+      <c r="B30" s="186">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="183"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183">
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183">
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="183"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="182">
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182">
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
-      <c r="Q30" s="183">
+      <c r="O30" s="187"/>
+      <c r="P30" s="187"/>
+      <c r="Q30" s="186">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="183"/>
-      <c r="S30" s="183"/>
-      <c r="T30" s="183">
+      <c r="R30" s="186"/>
+      <c r="S30" s="186"/>
+      <c r="T30" s="186">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="191"/>
+      <c r="U30" s="183"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -13268,7 +13253,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="179"/>
+      <c r="AI30" s="194"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -13279,27 +13264,27 @@
       </c>
     </row>
     <row r="31" spans="1:60">
-      <c r="A31" s="181"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
-      <c r="Q31" s="183"/>
-      <c r="R31" s="183"/>
-      <c r="S31" s="183"/>
-      <c r="T31" s="183"/>
-      <c r="U31" s="191"/>
+      <c r="A31" s="188"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="187"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="183"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -13328,7 +13313,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="180">
+      <c r="AI31" s="201">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -13414,50 +13399,50 @@
       </c>
     </row>
     <row r="32" spans="1:60">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="183">
+      <c r="B32" s="186">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183">
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183">
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="183"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="183">
+      <c r="I32" s="186"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="186">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="182">
+      <c r="L32" s="186"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="187">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="183">
+      <c r="O32" s="187"/>
+      <c r="P32" s="187"/>
+      <c r="Q32" s="186">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="183"/>
-      <c r="S32" s="183"/>
-      <c r="T32" s="183">
+      <c r="R32" s="186"/>
+      <c r="S32" s="186"/>
+      <c r="T32" s="186">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>102</v>
       </c>
-      <c r="U32" s="191"/>
+      <c r="U32" s="183"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -13486,7 +13471,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="172"/>
+      <c r="AI32" s="189"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13565,27 +13550,27 @@
       </c>
     </row>
     <row r="33" spans="1:60">
-      <c r="A33" s="181"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
-      <c r="Q33" s="183"/>
-      <c r="R33" s="183"/>
-      <c r="S33" s="183"/>
-      <c r="T33" s="183"/>
-      <c r="U33" s="191"/>
+      <c r="A33" s="188"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="186"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="186"/>
+      <c r="L33" s="186"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="187"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="186"/>
+      <c r="S33" s="186"/>
+      <c r="T33" s="186"/>
+      <c r="U33" s="183"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13614,7 +13599,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="172">
+      <c r="AI33" s="189">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13696,50 +13681,50 @@
       </c>
     </row>
     <row r="34" spans="1:60">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="183">
+      <c r="B34" s="186">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="183"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183">
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183">
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="183"/>
-      <c r="J34" s="183"/>
-      <c r="K34" s="182">
+      <c r="I34" s="186"/>
+      <c r="J34" s="186"/>
+      <c r="K34" s="187">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="182">
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="187">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="182"/>
-      <c r="P34" s="182"/>
-      <c r="Q34" s="182">
+      <c r="O34" s="187"/>
+      <c r="P34" s="187"/>
+      <c r="Q34" s="187">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="182"/>
-      <c r="S34" s="182"/>
-      <c r="T34" s="183">
+      <c r="R34" s="187"/>
+      <c r="S34" s="187"/>
+      <c r="T34" s="186">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="191"/>
+      <c r="U34" s="183"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13768,7 +13753,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="172"/>
+      <c r="AI34" s="189"/>
       <c r="AO34" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13847,27 +13832,27 @@
       </c>
     </row>
     <row r="35" spans="1:60">
-      <c r="A35" s="181"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="183"/>
-      <c r="G35" s="183"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="183"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="182"/>
-      <c r="O35" s="182"/>
-      <c r="P35" s="182"/>
-      <c r="Q35" s="182"/>
-      <c r="R35" s="182"/>
-      <c r="S35" s="182"/>
-      <c r="T35" s="183"/>
-      <c r="U35" s="191"/>
+      <c r="A35" s="188"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="187"/>
+      <c r="P35" s="187"/>
+      <c r="Q35" s="187"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
+      <c r="T35" s="186"/>
+      <c r="U35" s="183"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -13896,7 +13881,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="172">
+      <c r="AI35" s="189">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -13985,50 +13970,50 @@
       </c>
     </row>
     <row r="36" spans="1:60">
-      <c r="A36" s="181" t="s">
+      <c r="A36" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="183">
+      <c r="B36" s="186">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183">
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183">
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="186">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="183"/>
-      <c r="J36" s="183"/>
-      <c r="K36" s="182">
+      <c r="I36" s="186"/>
+      <c r="J36" s="186"/>
+      <c r="K36" s="187">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="183">
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="186">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="183"/>
-      <c r="P36" s="183"/>
-      <c r="Q36" s="183">
+      <c r="O36" s="186"/>
+      <c r="P36" s="186"/>
+      <c r="Q36" s="186">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="183"/>
-      <c r="S36" s="183"/>
-      <c r="T36" s="183">
+      <c r="R36" s="186"/>
+      <c r="S36" s="186"/>
+      <c r="T36" s="186">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
         <v>96</v>
       </c>
-      <c r="U36" s="191"/>
+      <c r="U36" s="183"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -14057,7 +14042,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="172"/>
+      <c r="AI36" s="189"/>
       <c r="AK36" s="5">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -14140,27 +14125,27 @@
       </c>
     </row>
     <row r="37" spans="1:60">
-      <c r="A37" s="181"/>
-      <c r="B37" s="183"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="183"/>
-      <c r="O37" s="183"/>
-      <c r="P37" s="183"/>
-      <c r="Q37" s="183"/>
-      <c r="R37" s="183"/>
-      <c r="S37" s="183"/>
-      <c r="T37" s="183"/>
-      <c r="U37" s="191"/>
+      <c r="A37" s="188"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="186"/>
+      <c r="O37" s="186"/>
+      <c r="P37" s="186"/>
+      <c r="Q37" s="186"/>
+      <c r="R37" s="186"/>
+      <c r="S37" s="186"/>
+      <c r="T37" s="186"/>
+      <c r="U37" s="183"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -14189,7 +14174,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="172">
+      <c r="AI37" s="189">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -14271,50 +14256,50 @@
       </c>
     </row>
     <row r="38" spans="1:60">
-      <c r="A38" s="190" t="s">
+      <c r="A38" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="183">
+      <c r="B38" s="186">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183">
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183">
+      <c r="F38" s="186"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="183"/>
-      <c r="J38" s="183"/>
-      <c r="K38" s="183">
+      <c r="I38" s="186"/>
+      <c r="J38" s="186"/>
+      <c r="K38" s="186">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>199</v>
       </c>
-      <c r="L38" s="183"/>
-      <c r="M38" s="183"/>
-      <c r="N38" s="183">
+      <c r="L38" s="186"/>
+      <c r="M38" s="186"/>
+      <c r="N38" s="186">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="183"/>
-      <c r="P38" s="183"/>
-      <c r="Q38" s="183">
+      <c r="O38" s="186"/>
+      <c r="P38" s="186"/>
+      <c r="Q38" s="186">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="183"/>
-      <c r="S38" s="183"/>
-      <c r="T38" s="183">
+      <c r="R38" s="186"/>
+      <c r="S38" s="186"/>
+      <c r="T38" s="186">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="191"/>
+      <c r="U38" s="183"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -14343,7 +14328,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="172"/>
+      <c r="AI38" s="189"/>
       <c r="AO38" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14422,27 +14407,27 @@
       </c>
     </row>
     <row r="39" spans="1:60">
-      <c r="A39" s="190"/>
-      <c r="B39" s="183"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="183"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="183"/>
-      <c r="M39" s="183"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="183"/>
-      <c r="P39" s="183"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="183"/>
-      <c r="S39" s="183"/>
-      <c r="T39" s="183"/>
-      <c r="U39" s="191"/>
+      <c r="A39" s="185"/>
+      <c r="B39" s="186"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="186"/>
+      <c r="J39" s="186"/>
+      <c r="K39" s="186"/>
+      <c r="L39" s="186"/>
+      <c r="M39" s="186"/>
+      <c r="N39" s="186"/>
+      <c r="O39" s="186"/>
+      <c r="P39" s="186"/>
+      <c r="Q39" s="186"/>
+      <c r="R39" s="186"/>
+      <c r="S39" s="186"/>
+      <c r="T39" s="186"/>
+      <c r="U39" s="183"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -14471,7 +14456,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="172">
+      <c r="AI39" s="189">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -14582,7 +14567,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="172"/>
+      <c r="AI40" s="189"/>
       <c r="AO40" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14690,7 +14675,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="172">
+      <c r="AI41" s="189">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14801,7 +14786,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="172"/>
+      <c r="AI42" s="189"/>
       <c r="AO42" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14909,7 +14894,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="172">
+      <c r="AI43" s="189">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -15020,7 +15005,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="173"/>
+      <c r="AI44" s="203"/>
       <c r="AO44" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15113,19 +15098,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="174" t="str">
+      <c r="AC46" s="197" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="175"/>
-      <c r="AE46" s="176"/>
-      <c r="AF46" s="174" t="str">
+      <c r="AD46" s="198"/>
+      <c r="AE46" s="199"/>
+      <c r="AF46" s="197" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="175"/>
-      <c r="AH46" s="177"/>
-      <c r="AI46" s="178" t="str">
+      <c r="AG46" s="198"/>
+      <c r="AH46" s="200"/>
+      <c r="AI46" s="193" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -15165,7 +15150,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="179"/>
+      <c r="AI47" s="194"/>
       <c r="BG47" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -15201,7 +15186,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="180">
+      <c r="AI48" s="201">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -15315,7 +15300,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="172"/>
+      <c r="AI49" s="189"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -15422,7 +15407,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="172">
+      <c r="AI50" s="189">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -15551,7 +15536,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="172"/>
+      <c r="AI51" s="189"/>
       <c r="AO51" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15672,7 +15657,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="172">
+      <c r="AI52" s="189">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15796,7 +15781,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="172"/>
+      <c r="AI53" s="189"/>
       <c r="AO53" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15917,7 +15902,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="172">
+      <c r="AI54" s="189">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -16041,7 +16026,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="172"/>
+      <c r="AI55" s="189"/>
       <c r="AO55" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16162,7 +16147,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="172">
+      <c r="AI56" s="189">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -16286,7 +16271,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="172"/>
+      <c r="AI57" s="189"/>
       <c r="AO57" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16404,7 +16389,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="172">
+      <c r="AI58" s="189">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -16514,7 +16499,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="172"/>
+      <c r="AI59" s="189"/>
       <c r="AO59" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16621,7 +16606,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="172">
+      <c r="AI60" s="189">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16731,7 +16716,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="173"/>
+      <c r="AI61" s="203"/>
       <c r="AO61" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16811,24 +16796,76 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -16853,97 +16890,45 @@
     <mergeCell ref="H34:J35"/>
     <mergeCell ref="K34:M35"/>
     <mergeCell ref="N34:P35"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AI44">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>27.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AI61">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:T39">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17061,20 +17046,20 @@
       <c r="N2" s="6">
         <v>30</v>
       </c>
-      <c r="O2" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="184" t="s">
+      <c r="O2" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="184" t="s">
+      <c r="Q2" s="191"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="185"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="178" t="s">
+      <c r="T2" s="191"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="193" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17117,7 +17102,7 @@
       <c r="N3" s="6">
         <v>20</v>
       </c>
-      <c r="O3" s="193"/>
+      <c r="O3" s="204"/>
       <c r="P3" s="87" t="s">
         <v>26</v>
       </c>
@@ -17136,7 +17121,7 @@
       <c r="U3" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="179"/>
+      <c r="V3" s="194"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="17" t="s">
@@ -17843,7 +17828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
@@ -18359,29 +18344,29 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O9" s="199"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="199"/>
-      <c r="U9" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="174" t="s">
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="172"/>
+      <c r="U9" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="175"/>
-      <c r="X9" s="176"/>
-      <c r="Y9" s="174" t="s">
+      <c r="W9" s="198"/>
+      <c r="X9" s="199"/>
+      <c r="Y9" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="176"/>
-      <c r="AB9" s="174" t="s">
+      <c r="Z9" s="198"/>
+      <c r="AA9" s="199"/>
+      <c r="AB9" s="197" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="177"/>
-      <c r="AE9" s="178" t="s">
+      <c r="AC9" s="198"/>
+      <c r="AD9" s="200"/>
+      <c r="AE9" s="193" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18420,11 +18405,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="199"/>
+      <c r="O10" s="172"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="U10" s="179"/>
+      <c r="U10" s="194"/>
       <c r="V10" s="40" t="s">
         <v>26</v>
       </c>
@@ -18452,7 +18437,7 @@
       <c r="AD10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="179"/>
+      <c r="AE10" s="194"/>
     </row>
     <row r="11" spans="1:31" ht="13.5" thickBot="1">
       <c r="A11" s="7" t="s">
@@ -18502,10 +18487,10 @@
       <c r="Q11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="210" t="s">
+      <c r="R11" s="205" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="191"/>
+      <c r="S11" s="183"/>
       <c r="U11" s="44" t="s">
         <v>7</v>
       </c>
@@ -18536,7 +18521,7 @@
       <c r="AD11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="180">
+      <c r="AE11" s="201">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>26</v>
       </c>
@@ -18586,7 +18571,7 @@
       <c r="P12" s="162">
         <v>17</v>
       </c>
-      <c r="Q12" s="200">
+      <c r="Q12" s="173">
         <v>510</v>
       </c>
       <c r="R12" s="8"/>
@@ -18600,7 +18585,7 @@
       <c r="AB12" s="50"/>
       <c r="AC12" s="51"/>
       <c r="AD12" s="24"/>
-      <c r="AE12" s="172"/>
+      <c r="AE12" s="189"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="14"/>
@@ -18643,7 +18628,7 @@
       <c r="P13" s="168">
         <v>19</v>
       </c>
-      <c r="Q13" s="201">
+      <c r="Q13" s="174">
         <v>380</v>
       </c>
       <c r="R13" s="8"/>
@@ -18677,7 +18662,7 @@
       <c r="AD13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="172">
+      <c r="AE13" s="189">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>27</v>
       </c>
@@ -18724,10 +18709,10 @@
       <c r="O14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="202" t="s">
+      <c r="P14" s="175" t="s">
         <v>143</v>
       </c>
-      <c r="Q14" s="203" t="s">
+      <c r="Q14" s="176" t="s">
         <v>149</v>
       </c>
       <c r="R14" s="8"/>
@@ -18747,7 +18732,7 @@
       <c r="AB14" s="45"/>
       <c r="AC14" s="46"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="172"/>
+      <c r="AE14" s="189"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="7" t="s">
@@ -18794,7 +18779,7 @@
       <c r="P15" s="168">
         <v>31</v>
       </c>
-      <c r="Q15" s="201">
+      <c r="Q15" s="174">
         <v>465</v>
       </c>
       <c r="R15" s="8"/>
@@ -18828,7 +18813,7 @@
       <c r="AD15" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="172">
+      <c r="AE15" s="189">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
@@ -18875,10 +18860,10 @@
       <c r="O16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P16" s="204" t="s">
+      <c r="P16" s="177" t="s">
         <v>148</v>
       </c>
-      <c r="Q16" s="205" t="s">
+      <c r="Q16" s="178" t="s">
         <v>147</v>
       </c>
       <c r="R16" s="8"/>
@@ -18904,7 +18889,7 @@
       <c r="AD16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="172"/>
+      <c r="AE16" s="189"/>
     </row>
     <row r="17" spans="1:31" ht="13.5" thickBot="1">
       <c r="A17" s="17" t="s">
@@ -18948,10 +18933,10 @@
       <c r="O17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="206">
+      <c r="P17" s="179">
         <v>193</v>
       </c>
-      <c r="Q17" s="207">
+      <c r="Q17" s="180">
         <v>4187</v>
       </c>
       <c r="R17" s="8"/>
@@ -18985,7 +18970,7 @@
       <c r="AD17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="172">
+      <c r="AE17" s="189">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
@@ -19051,7 +19036,7 @@
       <c r="AD18" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="172"/>
+      <c r="AE18" s="189"/>
     </row>
     <row r="19" spans="1:31" ht="13.5" thickBot="1">
       <c r="U19" s="53" t="s">
@@ -19084,7 +19069,7 @@
       <c r="AD19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="172">
+      <c r="AE19" s="189">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>30</v>
       </c>
@@ -19131,7 +19116,7 @@
         <v>2</v>
       </c>
       <c r="AD20" s="24"/>
-      <c r="AE20" s="172"/>
+      <c r="AE20" s="189"/>
     </row>
     <row r="21" spans="1:31">
       <c r="U21" s="44" t="s">
@@ -19164,7 +19149,7 @@
       <c r="AD21" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="172">
+      <c r="AE21" s="189">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
@@ -19181,7 +19166,7 @@
       <c r="AB22" s="45"/>
       <c r="AC22" s="46"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="172"/>
+      <c r="AE22" s="189"/>
     </row>
     <row r="23" spans="1:31" ht="13.5" thickBot="1">
       <c r="U23" s="53" t="s">
@@ -19214,7 +19199,7 @@
       <c r="AD23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="172">
+      <c r="AE23" s="189">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
         <v>28</v>
       </c>
@@ -19241,7 +19226,7 @@
       <c r="G24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="211" t="s">
+      <c r="H24" s="182" t="s">
         <v>150</v>
       </c>
       <c r="I24" s="6" t="s">
@@ -19281,7 +19266,7 @@
       <c r="AD24" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="173"/>
+      <c r="AE24" s="203"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="7" t="s">
@@ -19303,7 +19288,7 @@
       <c r="G25" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="H25" s="211"/>
+      <c r="H25" s="182"/>
       <c r="I25" s="6">
         <f t="shared" ref="I25:I41" si="13">IF($C25="Responsabile",$G25,0)</f>
         <v>0</v>
@@ -19504,17 +19489,17 @@
       <c r="R28" s="6">
         <v>15</v>
       </c>
-      <c r="U28" s="209"/>
-      <c r="V28" s="209"/>
-      <c r="W28" s="209"/>
-      <c r="X28" s="209"/>
-      <c r="Y28" s="209"/>
-      <c r="Z28" s="209"/>
-      <c r="AA28" s="209"/>
-      <c r="AB28" s="209"/>
-      <c r="AC28" s="209"/>
-      <c r="AD28" s="209"/>
-      <c r="AE28" s="209"/>
+      <c r="U28" s="206"/>
+      <c r="V28" s="206"/>
+      <c r="W28" s="206"/>
+      <c r="X28" s="206"/>
+      <c r="Y28" s="206"/>
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="206"/>
+      <c r="AB28" s="206"/>
+      <c r="AC28" s="206"/>
+      <c r="AD28" s="206"/>
+      <c r="AE28" s="206"/>
     </row>
     <row r="29" spans="1:31" ht="13.5" thickBot="1">
       <c r="A29" s="7"/>
@@ -19563,7 +19548,7 @@
       <c r="R29" s="6">
         <v>22</v>
       </c>
-      <c r="U29" s="209"/>
+      <c r="U29" s="206"/>
       <c r="V29" s="73"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
@@ -19573,7 +19558,7 @@
       <c r="AB29" s="73"/>
       <c r="AC29" s="73"/>
       <c r="AD29" s="73"/>
-      <c r="AE29" s="209"/>
+      <c r="AE29" s="206"/>
     </row>
     <row r="30" spans="1:31" ht="13.5" thickBot="1">
       <c r="A30" s="21" t="s">
@@ -19636,7 +19621,7 @@
       <c r="AB30" s="73"/>
       <c r="AC30" s="73"/>
       <c r="AD30" s="73"/>
-      <c r="AE30" s="209"/>
+      <c r="AE30" s="206"/>
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="7" t="s">
@@ -19688,7 +19673,7 @@
       <c r="AB31" s="73"/>
       <c r="AC31" s="73"/>
       <c r="AD31" s="73"/>
-      <c r="AE31" s="209"/>
+      <c r="AE31" s="206"/>
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="17" t="s">
@@ -19738,7 +19723,7 @@
       <c r="AB32" s="73"/>
       <c r="AC32" s="73"/>
       <c r="AD32" s="73"/>
-      <c r="AE32" s="209"/>
+      <c r="AE32" s="206"/>
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="14"/>
@@ -19784,7 +19769,7 @@
       <c r="AB33" s="73"/>
       <c r="AC33" s="73"/>
       <c r="AD33" s="73"/>
-      <c r="AE33" s="209"/>
+      <c r="AE33" s="206"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="7" t="s">
@@ -19834,7 +19819,7 @@
       <c r="AB34" s="73"/>
       <c r="AC34" s="73"/>
       <c r="AD34" s="73"/>
-      <c r="AE34" s="209"/>
+      <c r="AE34" s="206"/>
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="17" t="s">
@@ -19884,7 +19869,7 @@
       <c r="AB35" s="73"/>
       <c r="AC35" s="73"/>
       <c r="AD35" s="73"/>
-      <c r="AE35" s="209"/>
+      <c r="AE35" s="206"/>
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="14"/>
@@ -19930,7 +19915,7 @@
       <c r="AB36" s="73"/>
       <c r="AC36" s="73"/>
       <c r="AD36" s="73"/>
-      <c r="AE36" s="209"/>
+      <c r="AE36" s="206"/>
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="7" t="s">
@@ -19979,8 +19964,8 @@
       <c r="AA37" s="73"/>
       <c r="AB37" s="73"/>
       <c r="AC37" s="73"/>
-      <c r="AD37" s="208"/>
-      <c r="AE37" s="209"/>
+      <c r="AD37" s="181"/>
+      <c r="AE37" s="206"/>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="7" t="s">
@@ -20030,7 +20015,7 @@
       <c r="AB38" s="73"/>
       <c r="AC38" s="73"/>
       <c r="AD38" s="73"/>
-      <c r="AE38" s="209"/>
+      <c r="AE38" s="206"/>
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="59" t="s">
@@ -20080,7 +20065,7 @@
       <c r="AB39" s="73"/>
       <c r="AC39" s="73"/>
       <c r="AD39" s="73"/>
-      <c r="AE39" s="209"/>
+      <c r="AE39" s="206"/>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="17" t="s">
@@ -20130,7 +20115,7 @@
       <c r="AB40" s="73"/>
       <c r="AC40" s="73"/>
       <c r="AD40" s="73"/>
-      <c r="AE40" s="209"/>
+      <c r="AE40" s="206"/>
     </row>
     <row r="41" spans="1:31" ht="13.5" thickBot="1">
       <c r="A41" s="62"/>
@@ -20176,7 +20161,7 @@
       <c r="AB41" s="73"/>
       <c r="AC41" s="73"/>
       <c r="AD41" s="73"/>
-      <c r="AE41" s="209"/>
+      <c r="AE41" s="206"/>
     </row>
     <row r="42" spans="1:31" ht="13.5" thickBot="1">
       <c r="U42" s="73"/>
@@ -20189,7 +20174,7 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="73"/>
-      <c r="AE42" s="209"/>
+      <c r="AE42" s="206"/>
     </row>
     <row r="43" spans="1:31" ht="13.5" thickBot="1">
       <c r="A43" s="70" t="s">
@@ -20219,7 +20204,7 @@
       <c r="AB43" s="73"/>
       <c r="AC43" s="73"/>
       <c r="AD43" s="73"/>
-      <c r="AE43" s="209"/>
+      <c r="AE43" s="206"/>
     </row>
     <row r="44" spans="1:31">
       <c r="U44" s="73"/>
@@ -20236,11 +20221,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AE29"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -20249,48 +20241,41 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AE29"/>
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
       <formula>$E$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>$E$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="notEqual">
       <formula>$D$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>$D$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC26">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="notEqual">
       <formula>$F$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>$F$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20639,20 +20624,20 @@
       <c r="R6" s="6">
         <v>15</v>
       </c>
-      <c r="T6" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="174" t="s">
+      <c r="T6" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="175"/>
-      <c r="W6" s="176"/>
-      <c r="X6" s="174" t="s">
+      <c r="V6" s="198"/>
+      <c r="W6" s="199"/>
+      <c r="X6" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="177"/>
-      <c r="AA6" s="178" t="s">
+      <c r="Y6" s="198"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="193" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20705,7 +20690,7 @@
         <f>SUM(Q2:Q6)</f>
         <v>6982</v>
       </c>
-      <c r="T7" s="179"/>
+      <c r="T7" s="194"/>
       <c r="U7" s="40" t="s">
         <v>26</v>
       </c>
@@ -20724,7 +20709,7 @@
       <c r="Z7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="179"/>
+      <c r="AA7" s="194"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="7" t="s">
@@ -20785,7 +20770,7 @@
       <c r="Z8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="180">
+      <c r="AA8" s="201">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
@@ -20837,7 +20822,7 @@
       <c r="Z9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="172"/>
+      <c r="AA9" s="189"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="17" t="s">
@@ -20898,7 +20883,7 @@
       <c r="Z10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="172">
+      <c r="AA10" s="189">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
@@ -20960,7 +20945,7 @@
       <c r="Z11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="172"/>
+      <c r="AA11" s="189"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="14"/>
@@ -20996,9 +20981,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O12" s="195"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="198"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="209"/>
+      <c r="Q12" s="210"/>
       <c r="T12" s="53" t="s">
         <v>49</v>
       </c>
@@ -21020,7 +21005,7 @@
       <c r="Z12" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="172">
+      <c r="AA12" s="189">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
@@ -21063,7 +21048,7 @@
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="O13" s="196"/>
+      <c r="O13" s="208"/>
       <c r="P13" s="112"/>
       <c r="Q13" s="124"/>
       <c r="T13" s="49"/>
@@ -21085,7 +21070,7 @@
       <c r="Z13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="172"/>
+      <c r="AA13" s="189"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="7" t="s">
@@ -21149,7 +21134,7 @@
       <c r="Z14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="172">
+      <c r="AA14" s="189">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
@@ -21210,7 +21195,7 @@
       <c r="Z15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="172"/>
+      <c r="AA15" s="189"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="21" t="s">
@@ -21274,7 +21259,7 @@
       <c r="Z16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="172">
+      <c r="AA16" s="189">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
@@ -21339,7 +21324,7 @@
       <c r="Z17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="172"/>
+      <c r="AA17" s="189"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="7"/>
@@ -21399,7 +21384,7 @@
       <c r="Z18" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="172">
+      <c r="AA18" s="189">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
@@ -21464,7 +21449,7 @@
       <c r="Z19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="172"/>
+      <c r="AA19" s="189"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" thickBot="1">
       <c r="A20" s="14"/>
@@ -21524,7 +21509,7 @@
       <c r="Z20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="172">
+      <c r="AA20" s="189">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
@@ -21583,7 +21568,7 @@
       <c r="Z21" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="173"/>
+      <c r="AA21" s="203"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="7"/>
@@ -21820,12 +21805,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -21833,20 +21812,26 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
       <formula>$E$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>$E$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
       <formula>$D$28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>$D$28</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22045,20 +22030,20 @@
       <c r="R3" s="6">
         <v>20</v>
       </c>
-      <c r="T3" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="174" t="s">
+      <c r="T3" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="175"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="174" t="s">
+      <c r="V3" s="198"/>
+      <c r="W3" s="199"/>
+      <c r="X3" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="175"/>
-      <c r="Z3" s="177"/>
-      <c r="AA3" s="178" t="s">
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="200"/>
+      <c r="AA3" s="193" t="s">
         <v>14</v>
       </c>
     </row>
@@ -22110,7 +22095,7 @@
       <c r="R4" s="6">
         <v>15</v>
       </c>
-      <c r="T4" s="179"/>
+      <c r="T4" s="194"/>
       <c r="U4" s="40" t="s">
         <v>26</v>
       </c>
@@ -22129,7 +22114,7 @@
       <c r="Z4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="179"/>
+      <c r="AA4" s="194"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="96" t="s">
@@ -22204,7 +22189,7 @@
       <c r="Z5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="180">
+      <c r="AA5" s="201">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
@@ -22274,7 +22259,7 @@
       <c r="X6" s="131"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="133"/>
-      <c r="AA6" s="172"/>
+      <c r="AA6" s="189"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" thickBot="1">
       <c r="A7" s="14"/>
@@ -22342,7 +22327,7 @@
       <c r="Z7" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="172">
+      <c r="AA7" s="189">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
@@ -22398,7 +22383,7 @@
       <c r="Z8" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="172"/>
+      <c r="AA8" s="189"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="59" t="s">
@@ -22459,7 +22444,7 @@
       <c r="Z9" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="172">
+      <c r="AA9" s="189">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
@@ -22505,7 +22490,7 @@
       <c r="X10" s="131"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="133"/>
-      <c r="AA10" s="172"/>
+      <c r="AA10" s="189"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" thickBot="1">
       <c r="A11" s="8"/>
@@ -22540,7 +22525,7 @@
       <c r="Z11" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="172">
+      <c r="AA11" s="189">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
@@ -22583,9 +22568,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="174"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="176"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="198"/>
+      <c r="Q12" s="199"/>
       <c r="T12" s="44"/>
       <c r="U12" s="130"/>
       <c r="V12" s="46"/>
@@ -22593,7 +22578,7 @@
       <c r="X12" s="130"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="73"/>
-      <c r="AA12" s="172"/>
+      <c r="AA12" s="189"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" thickBot="1">
       <c r="A13" s="8"/>
@@ -22602,7 +22587,7 @@
       <c r="D13" s="69"/>
       <c r="E13" s="69"/>
       <c r="F13" s="8"/>
-      <c r="O13" s="194"/>
+      <c r="O13" s="211"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="39"/>
       <c r="T13" s="53" t="s">
@@ -22626,7 +22611,7 @@
       <c r="Z13" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="172">
+      <c r="AA13" s="189">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
@@ -22648,7 +22633,7 @@
       <c r="X14" s="131"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="133"/>
-      <c r="AA14" s="172"/>
+      <c r="AA14" s="189"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="109"/>
@@ -22681,7 +22666,7 @@
       <c r="Z15" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="172">
+      <c r="AA15" s="189">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
@@ -22703,7 +22688,7 @@
       <c r="X16" s="130"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="73"/>
-      <c r="AA16" s="172"/>
+      <c r="AA16" s="189"/>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="8"/>
@@ -22736,7 +22721,7 @@
       <c r="Z17" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="172">
+      <c r="AA17" s="189">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
@@ -22758,7 +22743,7 @@
       <c r="X18" s="136"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="138"/>
-      <c r="AA18" s="173"/>
+      <c r="AA18" s="203"/>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="8"/>
@@ -22915,12 +22900,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -22928,20 +22907,26 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
       <formula>$E$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$E$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>$D$12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$D$12</formula>
     </cfRule>
   </conditionalFormatting>

--- a/RQ/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
+++ b/RQ/Esterni/Piano di Progetto/Ripartizione ruoli e ore.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="9645" windowHeight="4740" firstSheet="1" activeTab="4"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="156">
   <si>
     <t>Membro</t>
   </si>
@@ -473,6 +473,21 @@
   </si>
   <si>
     <t>Tabella per la stampa</t>
+  </si>
+  <si>
+    <t>(-5)</t>
+  </si>
+  <si>
+    <t>(-4)</t>
+  </si>
+  <si>
+    <t>(+5)</t>
+  </si>
+  <si>
+    <t>(+1)</t>
+  </si>
+  <si>
+    <t>(+2)</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="212">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1614,42 +1629,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1664,23 +1647,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1695,6 +1710,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2063,25 +2094,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="126936192"/>
-        <c:axId val="126937728"/>
+        <c:axId val="120972416"/>
+        <c:axId val="120973952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="126936192"/>
+        <c:axId val="120972416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126937728"/>
+        <c:crossAx val="120973952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126937728"/>
+        <c:axId val="120973952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,14 +2120,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126936192"/>
+        <c:crossAx val="120972416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2125,7 +2155,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2231,25 +2261,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="126989440"/>
-        <c:axId val="126990976"/>
+        <c:axId val="123122816"/>
+        <c:axId val="123124352"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="126989440"/>
+        <c:axId val="123122816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126990976"/>
+        <c:crossAx val="123124352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126990976"/>
+        <c:axId val="123124352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2258,14 +2288,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="&quot;€&quot;\ #,##000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126989440"/>
+        <c:crossAx val="123122816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2304,7 +2333,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2764,24 +2793,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="127948288"/>
-        <c:axId val="127949824"/>
+        <c:axId val="127165952"/>
+        <c:axId val="127167488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127948288"/>
+        <c:axId val="127165952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127949824"/>
+        <c:crossAx val="127167488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127949824"/>
+        <c:axId val="127167488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2789,7 +2818,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127948288"/>
+        <c:crossAx val="127165952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2802,7 +2831,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2888,7 +2917,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2974,7 +3003,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3549,19 +3578,19 @@
         <f>'1_AN'!O2</f>
         <v>Membro</v>
       </c>
-      <c r="AC2" s="190" t="str">
+      <c r="AC2" s="195" t="str">
         <f>'1_AN'!P2</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="192"/>
-      <c r="AF2" s="190" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="195" t="str">
         <f>'1_AN'!S2</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG2" s="191"/>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="193" t="str">
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="189" t="str">
         <f>'1_AN'!V2</f>
         <v>Totale</v>
       </c>
@@ -3695,7 +3724,7 @@
         <f>'1_AN'!U3</f>
         <v>Fase</v>
       </c>
-      <c r="AI3" s="194"/>
+      <c r="AI3" s="190"/>
     </row>
     <row r="4" spans="1:60">
       <c r="A4" s="139" t="s">
@@ -4578,25 +4607,25 @@
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="190" t="str">
+      <c r="AC12" s="195" t="str">
         <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="197" t="str">
+      <c r="AD12" s="198"/>
+      <c r="AE12" s="199"/>
+      <c r="AF12" s="185" t="str">
         <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="199"/>
-      <c r="AI12" s="197" t="str">
+      <c r="AG12" s="186"/>
+      <c r="AH12" s="187"/>
+      <c r="AI12" s="185" t="str">
         <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="198"/>
-      <c r="AK12" s="200"/>
-      <c r="AL12" s="193" t="str">
+      <c r="AJ12" s="186"/>
+      <c r="AK12" s="188"/>
+      <c r="AL12" s="189" t="str">
         <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
@@ -4647,7 +4676,7 @@
         <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="194"/>
+      <c r="AL13" s="190"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -4702,7 +4731,7 @@
         <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="201">
+      <c r="AL14" s="191">
         <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
@@ -4832,7 +4861,7 @@
         <f>Consuntivo_2_PA!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="189"/>
+      <c r="AL15" s="183"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -4951,7 +4980,7 @@
         <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="189">
+      <c r="AL16" s="183">
         <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
@@ -5073,7 +5102,7 @@
         <f>Consuntivo_2_PA!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="189"/>
+      <c r="AL17" s="183"/>
       <c r="AO17" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5192,7 +5221,7 @@
         <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="189">
+      <c r="AL18" s="183">
         <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
@@ -5314,7 +5343,7 @@
         <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="189"/>
+      <c r="AL19" s="183"/>
       <c r="AO19" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5433,7 +5462,7 @@
         <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="189">
+      <c r="AL20" s="183">
         <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
@@ -5555,7 +5584,7 @@
         <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="189"/>
+      <c r="AL21" s="183"/>
       <c r="AO21" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5674,7 +5703,7 @@
         <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="189">
+      <c r="AL22" s="183">
         <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
@@ -5759,36 +5788,36 @@
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="202" t="s">
+      <c r="B23" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202" t="s">
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202" t="s">
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202" t="s">
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202" t="s">
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="202"/>
-      <c r="P23" s="202"/>
-      <c r="Q23" s="202" t="s">
+      <c r="O23" s="200"/>
+      <c r="P23" s="200"/>
+      <c r="Q23" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="202"/>
-      <c r="S23" s="202"/>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
       <c r="T23" s="150" t="s">
         <v>14</v>
       </c>
@@ -5833,7 +5862,7 @@
         <f>Consuntivo_2_PA!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="189"/>
+      <c r="AL23" s="183"/>
       <c r="AO23" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -5912,50 +5941,50 @@
       </c>
     </row>
     <row r="24" spans="1:60">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="186">
+      <c r="B24" s="194">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186">
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="187">
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="193">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>15</v>
       </c>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="186">
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="186"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="187">
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="193">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="187"/>
-      <c r="P24" s="187"/>
-      <c r="Q24" s="186">
+      <c r="O24" s="193"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="194">
         <f t="shared" ref="Q24" si="38">SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="184">
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="203">
         <f t="shared" ref="T24" si="39">SUM(B24:S25)</f>
         <v>115</v>
       </c>
-      <c r="U24" s="183"/>
+      <c r="U24" s="202"/>
       <c r="AB24" s="44" t="str">
         <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
@@ -5996,7 +6025,7 @@
         <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="189">
+      <c r="AL24" s="183">
         <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
@@ -6078,27 +6107,27 @@
       </c>
     </row>
     <row r="25" spans="1:60">
-      <c r="A25" s="188"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="184"/>
-      <c r="U25" s="183"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="203"/>
+      <c r="U25" s="202"/>
       <c r="AB25" s="44">
         <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
@@ -6139,7 +6168,7 @@
         <f>Consuntivo_2_PA!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="189"/>
+      <c r="AL25" s="183"/>
       <c r="AO25" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6218,50 +6247,50 @@
       </c>
     </row>
     <row r="26" spans="1:60">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="186">
+      <c r="B26" s="194">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186">
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186">
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>11</v>
       </c>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187">
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="193">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>41</v>
       </c>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="186">
+      <c r="L26" s="193"/>
+      <c r="M26" s="193"/>
+      <c r="N26" s="194">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186">
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="184">
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="203">
         <f t="shared" ref="T26" si="40">SUM(B26:S27)</f>
         <v>116</v>
       </c>
-      <c r="U26" s="183"/>
+      <c r="U26" s="202"/>
       <c r="AB26" s="53" t="str">
         <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -6302,7 +6331,7 @@
         <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="189">
+      <c r="AL26" s="183">
         <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
@@ -6384,27 +6413,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A27" s="188"/>
-      <c r="B27" s="186"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="186"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="184"/>
-      <c r="U27" s="183"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="193"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="203"/>
+      <c r="U27" s="202"/>
       <c r="AB27" s="75">
         <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
@@ -6445,7 +6474,7 @@
         <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="203"/>
+      <c r="AL27" s="184"/>
       <c r="AO27" s="5">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -6524,96 +6553,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A28" s="188" t="s">
+      <c r="A28" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="186">
+      <c r="B28" s="194">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186">
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>14</v>
       </c>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186">
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>13</v>
       </c>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186">
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="186"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="186">
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="187">
+      <c r="O28" s="194"/>
+      <c r="P28" s="194"/>
+      <c r="Q28" s="193">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="184">
+      <c r="R28" s="193"/>
+      <c r="S28" s="193"/>
+      <c r="T28" s="203">
         <f t="shared" ref="T28" si="41">SUM(B28:S29)</f>
         <v>117</v>
       </c>
-      <c r="U28" s="183"/>
+      <c r="U28" s="202"/>
       <c r="BG28" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60">
-      <c r="A29" s="188"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="184"/>
-      <c r="U29" s="183"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="193"/>
+      <c r="T29" s="203"/>
+      <c r="U29" s="202"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="197" t="str">
+      <c r="AC29" s="185" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="198"/>
-      <c r="AE29" s="199"/>
-      <c r="AF29" s="197" t="str">
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="187"/>
+      <c r="AF29" s="185" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="198"/>
-      <c r="AH29" s="200"/>
-      <c r="AI29" s="193" t="str">
+      <c r="AG29" s="186"/>
+      <c r="AH29" s="188"/>
+      <c r="AI29" s="189" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -6623,50 +6652,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="186">
+      <c r="B30" s="194">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186">
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186">
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>11</v>
       </c>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187">
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="193">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>39</v>
       </c>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187">
+      <c r="L30" s="193"/>
+      <c r="M30" s="193"/>
+      <c r="N30" s="193">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="187"/>
-      <c r="P30" s="187"/>
-      <c r="Q30" s="186">
+      <c r="O30" s="193"/>
+      <c r="P30" s="193"/>
+      <c r="Q30" s="194">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="184">
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="203">
         <f t="shared" ref="T30" si="42">SUM(B30:S31)</f>
         <v>122</v>
       </c>
-      <c r="U30" s="183"/>
+      <c r="U30" s="202"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -6692,7 +6721,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="194"/>
+      <c r="AI30" s="190"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -6703,27 +6732,27 @@
       </c>
     </row>
     <row r="31" spans="1:60">
-      <c r="A31" s="188"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="187"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="184"/>
-      <c r="U31" s="183"/>
+      <c r="A31" s="192"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="193"/>
+      <c r="O31" s="193"/>
+      <c r="P31" s="193"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="203"/>
+      <c r="U31" s="202"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -6752,7 +6781,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="201">
+      <c r="AI31" s="191">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -6838,50 +6867,50 @@
       </c>
     </row>
     <row r="32" spans="1:60">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="186">
+      <c r="B32" s="194">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186">
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186">
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>12</v>
       </c>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186">
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>30</v>
       </c>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="187">
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="193">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="186">
+      <c r="O32" s="193"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="194">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="184">
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="203">
         <f t="shared" ref="T32" si="58">SUM(B32:S33)</f>
         <v>122</v>
       </c>
-      <c r="U32" s="183"/>
+      <c r="U32" s="202"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -6910,7 +6939,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="189"/>
+      <c r="AI32" s="183"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -6989,27 +7018,27 @@
       </c>
     </row>
     <row r="33" spans="1:60">
-      <c r="A33" s="188"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="186"/>
-      <c r="M33" s="186"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="187"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="184"/>
-      <c r="U33" s="183"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="193"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="203"/>
+      <c r="U33" s="202"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -7038,7 +7067,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="189">
+      <c r="AI33" s="183">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -7120,50 +7149,50 @@
       </c>
     </row>
     <row r="34" spans="1:60">
-      <c r="A34" s="188" t="s">
+      <c r="A34" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="186">
+      <c r="B34" s="194">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186">
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186">
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>10</v>
       </c>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="187">
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="193">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>37</v>
       </c>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="187">
+      <c r="L34" s="193"/>
+      <c r="M34" s="193"/>
+      <c r="N34" s="193">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="187"/>
-      <c r="P34" s="187"/>
-      <c r="Q34" s="187">
+      <c r="O34" s="193"/>
+      <c r="P34" s="193"/>
+      <c r="Q34" s="193">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="187"/>
-      <c r="S34" s="187"/>
-      <c r="T34" s="184">
+      <c r="R34" s="193"/>
+      <c r="S34" s="193"/>
+      <c r="T34" s="203">
         <f t="shared" ref="T34" si="62">SUM(B34:S35)</f>
         <v>120</v>
       </c>
-      <c r="U34" s="183"/>
+      <c r="U34" s="202"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -7192,7 +7221,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="189"/>
+      <c r="AI34" s="183"/>
       <c r="AO34" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7271,27 +7300,27 @@
       </c>
     </row>
     <row r="35" spans="1:60">
-      <c r="A35" s="188"/>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="187"/>
-      <c r="P35" s="187"/>
-      <c r="Q35" s="187"/>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
-      <c r="T35" s="184"/>
-      <c r="U35" s="183"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="193"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="193"/>
+      <c r="P35" s="193"/>
+      <c r="Q35" s="193"/>
+      <c r="R35" s="193"/>
+      <c r="S35" s="193"/>
+      <c r="T35" s="203"/>
+      <c r="U35" s="202"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -7320,7 +7349,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="189">
+      <c r="AI35" s="183">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -7402,50 +7431,50 @@
       </c>
     </row>
     <row r="36" spans="1:60">
-      <c r="A36" s="188" t="s">
+      <c r="A36" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="186">
+      <c r="B36" s="194">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>12</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186">
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186">
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="187">
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="193">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="186">
+      <c r="L36" s="193"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="194">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="186"/>
-      <c r="P36" s="186"/>
-      <c r="Q36" s="186">
+      <c r="O36" s="194"/>
+      <c r="P36" s="194"/>
+      <c r="Q36" s="194">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="186"/>
-      <c r="S36" s="186"/>
-      <c r="T36" s="184">
+      <c r="R36" s="194"/>
+      <c r="S36" s="194"/>
+      <c r="T36" s="203">
         <f t="shared" ref="T36" si="63">SUM(B36:S37)</f>
         <v>116</v>
       </c>
-      <c r="U36" s="183"/>
+      <c r="U36" s="202"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -7474,7 +7503,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="189"/>
+      <c r="AI36" s="183"/>
       <c r="AO36" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7553,27 +7582,27 @@
       </c>
     </row>
     <row r="37" spans="1:60">
-      <c r="A37" s="188"/>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="187"/>
-      <c r="N37" s="186"/>
-      <c r="O37" s="186"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="186"/>
-      <c r="S37" s="186"/>
-      <c r="T37" s="184"/>
-      <c r="U37" s="183"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="194"/>
+      <c r="P37" s="194"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="194"/>
+      <c r="S37" s="194"/>
+      <c r="T37" s="203"/>
+      <c r="U37" s="202"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -7602,7 +7631,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="189">
+      <c r="AI37" s="183">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -7684,50 +7713,50 @@
       </c>
     </row>
     <row r="38" spans="1:60">
-      <c r="A38" s="185" t="s">
+      <c r="A38" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="186">
+      <c r="B38" s="194">
         <f>SUM(B24:D37)</f>
         <v>82</v>
       </c>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186">
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194">
         <f t="shared" ref="E38" si="64">SUM(E24:G37)</f>
         <v>69</v>
       </c>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186">
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194">
         <f>SUM(H24:J37)</f>
         <v>79</v>
       </c>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="186">
+      <c r="I38" s="194"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="194">
         <f t="shared" ref="K38" si="65">SUM(K24:M37)</f>
         <v>235</v>
       </c>
-      <c r="L38" s="186"/>
-      <c r="M38" s="186"/>
-      <c r="N38" s="186">
+      <c r="L38" s="194"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="194">
         <f t="shared" ref="N38" si="66">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="186"/>
-      <c r="P38" s="186"/>
-      <c r="Q38" s="186">
+      <c r="O38" s="194"/>
+      <c r="P38" s="194"/>
+      <c r="Q38" s="194">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="186"/>
-      <c r="S38" s="186"/>
-      <c r="T38" s="184">
+      <c r="R38" s="194"/>
+      <c r="S38" s="194"/>
+      <c r="T38" s="203">
         <f>SUM(B38:S39)</f>
         <v>828</v>
       </c>
-      <c r="U38" s="183"/>
+      <c r="U38" s="202"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -7756,7 +7785,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="189"/>
+      <c r="AI38" s="183"/>
       <c r="AO38" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -7835,27 +7864,27 @@
       </c>
     </row>
     <row r="39" spans="1:60">
-      <c r="A39" s="185"/>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="186"/>
-      <c r="L39" s="186"/>
-      <c r="M39" s="186"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="186"/>
-      <c r="P39" s="186"/>
-      <c r="Q39" s="186"/>
-      <c r="R39" s="186"/>
-      <c r="S39" s="186"/>
-      <c r="T39" s="184"/>
-      <c r="U39" s="183"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="194"/>
+      <c r="O39" s="194"/>
+      <c r="P39" s="194"/>
+      <c r="Q39" s="194"/>
+      <c r="R39" s="194"/>
+      <c r="S39" s="194"/>
+      <c r="T39" s="203"/>
+      <c r="U39" s="202"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -7884,7 +7913,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="189">
+      <c r="AI39" s="183">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -7995,7 +8024,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="189"/>
+      <c r="AI40" s="183"/>
       <c r="AO40" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8103,7 +8132,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="189">
+      <c r="AI41" s="183">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -8214,7 +8243,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="189"/>
+      <c r="AI42" s="183"/>
       <c r="AO42" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8322,7 +8351,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="189">
+      <c r="AI43" s="183">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -8433,7 +8462,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="203"/>
+      <c r="AI44" s="184"/>
       <c r="AO44" s="5">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -8526,19 +8555,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="197" t="str">
+      <c r="AC46" s="185" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="198"/>
-      <c r="AE46" s="199"/>
-      <c r="AF46" s="197" t="str">
+      <c r="AD46" s="186"/>
+      <c r="AE46" s="187"/>
+      <c r="AF46" s="185" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="198"/>
-      <c r="AH46" s="200"/>
-      <c r="AI46" s="193" t="str">
+      <c r="AG46" s="186"/>
+      <c r="AH46" s="188"/>
+      <c r="AI46" s="189" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -8578,7 +8607,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="194"/>
+      <c r="AI47" s="190"/>
       <c r="BG47" s="144">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -8614,7 +8643,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="201">
+      <c r="AI48" s="191">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -8728,7 +8757,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="189"/>
+      <c r="AI49" s="183"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -8835,7 +8864,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="189">
+      <c r="AI50" s="183">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -8957,7 +8986,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="189"/>
+      <c r="AI51" s="183"/>
       <c r="AO51" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9078,7 +9107,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="189">
+      <c r="AI52" s="183">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -9202,7 +9231,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="189"/>
+      <c r="AI53" s="183"/>
       <c r="AO53" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9323,7 +9352,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="189">
+      <c r="AI54" s="183">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -9447,7 +9476,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="189"/>
+      <c r="AI55" s="183"/>
       <c r="AO55" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9568,7 +9597,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="189">
+      <c r="AI56" s="183">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -9692,7 +9721,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="189"/>
+      <c r="AI57" s="183"/>
       <c r="AO57" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -9810,7 +9839,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="189">
+      <c r="AI58" s="183">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -9920,7 +9949,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="189"/>
+      <c r="AI59" s="183"/>
       <c r="AO59" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10027,7 +10056,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="189">
+      <c r="AI60" s="183">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -10137,7 +10166,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="203"/>
+      <c r="AI61" s="184"/>
       <c r="AO61" s="5">
         <f t="shared" si="82"/>
         <v>0</v>
@@ -10217,78 +10246,22 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="AL22:AL23"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AL14:AL15"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AL18:AL19"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="K26:M27"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N26:P27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="K28:M29"/>
-    <mergeCell ref="N28:P29"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="B28:D29"/>
-    <mergeCell ref="E28:G29"/>
-    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="T36:T37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:D39"/>
     <mergeCell ref="E38:G39"/>
@@ -10313,22 +10286,78 @@
     <mergeCell ref="N36:P37"/>
     <mergeCell ref="Q36:S37"/>
     <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="Q24:S25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="K28:M29"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="B28:D29"/>
+    <mergeCell ref="E28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="K26:M27"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N26:P27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="AL22:AL23"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AL14:AL15"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AL18:AL19"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
@@ -10442,13 +10471,13 @@
         <v>74</v>
       </c>
       <c r="AB2" s="140"/>
-      <c r="AC2" s="190"/>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="192"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="191"/>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="193"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="189"/>
       <c r="AJ2" s="5">
         <f>SUM(AI4:AI10)</f>
         <v>0</v>
@@ -10538,7 +10567,7 @@
       <c r="AF3" s="87"/>
       <c r="AG3" s="88"/>
       <c r="AH3" s="142"/>
-      <c r="AI3" s="194"/>
+      <c r="AI3" s="190"/>
     </row>
     <row r="4" spans="1:60">
       <c r="A4" s="139"/>
@@ -11151,25 +11180,25 @@
       <c r="AB12" s="140" t="s">
         <v>126</v>
       </c>
-      <c r="AC12" s="190" t="str">
+      <c r="AC12" s="195" t="str">
         <f>Consuntivo_2_PA!V9</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD12" s="195"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="197" t="str">
+      <c r="AD12" s="198"/>
+      <c r="AE12" s="199"/>
+      <c r="AF12" s="185" t="str">
         <f>Consuntivo_2_PA!Y9</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="199"/>
-      <c r="AI12" s="197" t="str">
+      <c r="AG12" s="186"/>
+      <c r="AH12" s="187"/>
+      <c r="AI12" s="185" t="str">
         <f>Consuntivo_2_PA!AB9</f>
         <v>III Periodo</v>
       </c>
-      <c r="AJ12" s="198"/>
-      <c r="AK12" s="200"/>
-      <c r="AL12" s="193" t="str">
+      <c r="AJ12" s="186"/>
+      <c r="AK12" s="188"/>
+      <c r="AL12" s="189" t="str">
         <f>Consuntivo_2_PA!AE9</f>
         <v>Totale</v>
       </c>
@@ -11216,7 +11245,7 @@
         <f>Consuntivo_2_PA!AD10</f>
         <v>Fase</v>
       </c>
-      <c r="AL13" s="194"/>
+      <c r="AL13" s="190"/>
       <c r="AM13" s="5">
         <f>SUM(AL14:AL27)</f>
         <v>193</v>
@@ -11267,7 +11296,7 @@
         <f>Consuntivo_2_PA!AD11</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL14" s="201">
+      <c r="AL14" s="191">
         <f>Consuntivo_2_PA!AE11</f>
         <v>26</v>
       </c>
@@ -11393,7 +11422,7 @@
         <f>Consuntivo_2_PA!AD12</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="189"/>
+      <c r="AL15" s="183"/>
       <c r="AO15" s="5">
         <f>IF($AC15=AO$2,$AD15,0)</f>
         <v>0</v>
@@ -11512,7 +11541,7 @@
         <f>Consuntivo_2_PA!AD13</f>
         <v>PA 3.2</v>
       </c>
-      <c r="AL16" s="189">
+      <c r="AL16" s="183">
         <f>Consuntivo_2_PA!AE13</f>
         <v>27</v>
       </c>
@@ -11634,7 +11663,7 @@
         <f>Consuntivo_2_PA!AD14</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="189"/>
+      <c r="AL17" s="183"/>
       <c r="AO17" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11753,7 +11782,7 @@
         <f>Consuntivo_2_PA!AD15</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL18" s="189">
+      <c r="AL18" s="183">
         <f>Consuntivo_2_PA!AE15</f>
         <v>26</v>
       </c>
@@ -11875,7 +11904,7 @@
         <f>Consuntivo_2_PA!AD16</f>
         <v>PA 6.1</v>
       </c>
-      <c r="AL19" s="189"/>
+      <c r="AL19" s="183"/>
       <c r="AO19" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -11994,7 +12023,7 @@
         <f>Consuntivo_2_PA!AD17</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL20" s="189">
+      <c r="AL20" s="183">
         <f>Consuntivo_2_PA!AE17</f>
         <v>28</v>
       </c>
@@ -12116,7 +12145,7 @@
         <f>Consuntivo_2_PA!AD18</f>
         <v>PA 6.2</v>
       </c>
-      <c r="AL21" s="189"/>
+      <c r="AL21" s="183"/>
       <c r="AO21" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12235,7 +12264,7 @@
         <f>Consuntivo_2_PA!AD19</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL22" s="189">
+      <c r="AL22" s="183">
         <f>Consuntivo_2_PA!AE19</f>
         <v>30</v>
       </c>
@@ -12320,36 +12349,36 @@
       <c r="A23" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="202" t="s">
+      <c r="B23" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202" t="s">
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="202"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="202" t="s">
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="202"/>
-      <c r="J23" s="202"/>
-      <c r="K23" s="202" t="s">
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202" t="s">
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="202"/>
-      <c r="P23" s="202"/>
-      <c r="Q23" s="202" t="s">
+      <c r="O23" s="200"/>
+      <c r="P23" s="200"/>
+      <c r="Q23" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="R23" s="202"/>
-      <c r="S23" s="202"/>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
       <c r="T23" s="149" t="s">
         <v>14</v>
       </c>
@@ -12394,7 +12423,7 @@
         <f>Consuntivo_2_PA!AD20</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="189"/>
+      <c r="AL23" s="183"/>
       <c r="AO23" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12473,50 +12502,50 @@
       </c>
     </row>
     <row r="24" spans="1:60">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="186">
+      <c r="B24" s="194">
         <f>SUM(AO4:AQ4,AO14:AQ15,AO31:AQ32,AO48:AQ49)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186">
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194">
         <f>SUM(AR4:AT4,AR14:AT15,AR31:AT32,AR48:AT49)</f>
         <v>10</v>
       </c>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="187">
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="193">
         <f>SUM(AU4:AW4,AU14:AW15,AU31:AW32,AU48:AW49)</f>
         <v>9</v>
       </c>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="186">
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194">
         <f>SUM(AX4:AZ4,AX14:AZ15,AX31:AZ32,AX48:AZ49)</f>
         <v>10</v>
       </c>
-      <c r="L24" s="186"/>
-      <c r="M24" s="186"/>
-      <c r="N24" s="187">
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="193">
         <f>SUM(BA4:BC4,BA14:BC15,BA31:BC32,BA48:BC49)</f>
         <v>59</v>
       </c>
-      <c r="O24" s="187"/>
-      <c r="P24" s="187"/>
-      <c r="Q24" s="186">
+      <c r="O24" s="193"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="194">
         <f>SUM(BD4:BF4,BD14:BF15,BD31:BF32,BD48:BF49)</f>
         <v>4</v>
       </c>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186">
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194">
         <f t="shared" ref="T24" si="32">SUM(B24:S25)</f>
         <v>96</v>
       </c>
-      <c r="U24" s="183"/>
+      <c r="U24" s="202"/>
       <c r="AB24" s="44" t="str">
         <f>Consuntivo_2_PA!U21</f>
         <v>Quadrio Giacomo</v>
@@ -12557,7 +12586,7 @@
         <f>Consuntivo_2_PA!AD21</f>
         <v>PA 5.1, 6.2</v>
       </c>
-      <c r="AL24" s="189">
+      <c r="AL24" s="183">
         <f>Consuntivo_2_PA!AE21</f>
         <v>28</v>
       </c>
@@ -12639,27 +12668,27 @@
       </c>
     </row>
     <row r="25" spans="1:60">
-      <c r="A25" s="188"/>
-      <c r="B25" s="186"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="186"/>
-      <c r="L25" s="186"/>
-      <c r="M25" s="186"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="187"/>
-      <c r="P25" s="187"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="183"/>
+      <c r="A25" s="192"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="193"/>
+      <c r="O25" s="193"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="202"/>
       <c r="AB25" s="44">
         <f>Consuntivo_2_PA!U22</f>
         <v>0</v>
@@ -12700,7 +12729,7 @@
         <f>Consuntivo_2_PA!AD22</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="189"/>
+      <c r="AL25" s="183"/>
       <c r="AO25" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -12779,50 +12808,50 @@
       </c>
     </row>
     <row r="26" spans="1:60">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="186">
+      <c r="B26" s="194">
         <f>SUM(AO5:AQ5,AO16:AQ17,AO33:AQ34,AO50:AQ51)</f>
         <v>13</v>
       </c>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186">
+      <c r="C26" s="194"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="194">
         <f>SUM(AR5:AT5,AR16:AT17,AR33:AT34,AR50:AT51)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186">
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194">
         <f>SUM(AU5:AW5,AU16:AW17,AU33:AW34,AU50:AW51)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="186"/>
-      <c r="J26" s="186"/>
-      <c r="K26" s="187">
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="193">
         <f>SUM(AX5:AZ5,AX16:AZ17,AX33:AZ34,AX50:AZ51)</f>
         <v>33</v>
       </c>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="186">
+      <c r="L26" s="193"/>
+      <c r="M26" s="193"/>
+      <c r="N26" s="194">
         <f>SUM(BA5:BC5,BA16:BC17,BA33:BC34,BA50:BC51)</f>
         <v>29</v>
       </c>
-      <c r="O26" s="186"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="186">
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="Q26" s="194">
         <f>SUM(BD5:BF5,BD16:BF17,BD33:BF34,BD50:BF51)</f>
         <v>12</v>
       </c>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186">
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194">
         <f t="shared" ref="T26" si="33">SUM(B26:S27)</f>
         <v>97</v>
       </c>
-      <c r="U26" s="183"/>
+      <c r="U26" s="202"/>
       <c r="AB26" s="53" t="str">
         <f>Consuntivo_2_PA!U23</f>
         <v>Maggiolo Giorgio</v>
@@ -12863,7 +12892,7 @@
         <f>Consuntivo_2_PA!AD23</f>
         <v>PA 3.3</v>
       </c>
-      <c r="AL26" s="189">
+      <c r="AL26" s="183">
         <f>Consuntivo_2_PA!AE23</f>
         <v>28</v>
       </c>
@@ -12945,27 +12974,27 @@
       </c>
     </row>
     <row r="27" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A27" s="188"/>
-      <c r="B27" s="186"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="186"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="186"/>
-      <c r="O27" s="186"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="183"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="193"/>
+      <c r="M27" s="193"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="202"/>
       <c r="AB27" s="75">
         <f>Consuntivo_2_PA!U24</f>
         <v>0</v>
@@ -13006,7 +13035,7 @@
         <f>Consuntivo_2_PA!AD24</f>
         <v>PA 5.1</v>
       </c>
-      <c r="AL27" s="203"/>
+      <c r="AL27" s="184"/>
       <c r="AO27" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -13085,96 +13114,96 @@
       </c>
     </row>
     <row r="28" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A28" s="188" t="s">
+      <c r="A28" s="192" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="186">
+      <c r="B28" s="194">
         <f>SUM(AO6:AQ6,AO18:AQ19,AO35:AQ36,AO52:AQ53)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186">
+      <c r="C28" s="194"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="194">
         <f>SUM(AR6:AT6,AR18:AT19,AR35:AT36,AR52:AT53)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="186">
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194">
         <f>SUM(AU6:AW6,AU18:AW19,AU35:AW36,AU52:AW53)</f>
         <v>2</v>
       </c>
-      <c r="I28" s="186"/>
-      <c r="J28" s="186"/>
-      <c r="K28" s="186">
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194">
         <f>SUM(AX6:AZ6,AX18:AZ19,AX35:AZ36,AX52:AZ53)</f>
         <v>27</v>
       </c>
-      <c r="L28" s="186"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="186">
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194">
         <f>SUM(BA6:BC6,BA18:BC19,BA35:BC36,BA52:BC53)</f>
         <v>33</v>
       </c>
-      <c r="O28" s="186"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="187">
+      <c r="O28" s="194"/>
+      <c r="P28" s="194"/>
+      <c r="Q28" s="193">
         <f>SUM(BD6:BF6,BD18:BF19,BD35:BF36,BD52:BF53)</f>
         <v>20</v>
       </c>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="186">
+      <c r="R28" s="193"/>
+      <c r="S28" s="193"/>
+      <c r="T28" s="194">
         <f t="shared" ref="T28" si="34">SUM(B28:S29)</f>
         <v>96</v>
       </c>
-      <c r="U28" s="183"/>
+      <c r="U28" s="202"/>
       <c r="BG28" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:60">
-      <c r="A29" s="188"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="186"/>
-      <c r="K29" s="186"/>
-      <c r="L29" s="186"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="186"/>
-      <c r="O29" s="186"/>
-      <c r="P29" s="186"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="183"/>
+      <c r="A29" s="192"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="194"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="194"/>
+      <c r="J29" s="194"/>
+      <c r="K29" s="194"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="194"/>
+      <c r="O29" s="194"/>
+      <c r="P29" s="194"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="193"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="202"/>
       <c r="AA29" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AB29" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="197" t="str">
+      <c r="AC29" s="185" t="str">
         <f>'3_PDC'!U6</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD29" s="198"/>
-      <c r="AE29" s="199"/>
-      <c r="AF29" s="197" t="str">
+      <c r="AD29" s="186"/>
+      <c r="AE29" s="187"/>
+      <c r="AF29" s="185" t="str">
         <f>'3_PDC'!X6</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG29" s="198"/>
-      <c r="AH29" s="200"/>
-      <c r="AI29" s="193" t="str">
+      <c r="AG29" s="186"/>
+      <c r="AH29" s="188"/>
+      <c r="AI29" s="189" t="str">
         <f>'3_PDC'!AA6</f>
         <v>Totale</v>
       </c>
@@ -13184,50 +13213,50 @@
       </c>
     </row>
     <row r="30" spans="1:60" ht="13.5" thickBot="1">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="186">
+      <c r="B30" s="194">
         <f>SUM(AO7:AQ7,AO20:AQ21,AO37:AQ38,AO54:AQ55)</f>
         <v>15</v>
       </c>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186">
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194">
         <f>SUM(AR7:AT7,AR20:AT21,AR37:AT38,AR54:AT55)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186">
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194">
         <f>SUM(AU7:AW7,AU20:AW21,AU37:AW38,AU54:AW55)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="186"/>
-      <c r="J30" s="186"/>
-      <c r="K30" s="187">
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="193">
         <f>SUM(AX7:AZ7,AX20:AZ21,AX37:AZ38,AX54:AZ55)</f>
         <v>31</v>
       </c>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187">
+      <c r="L30" s="193"/>
+      <c r="M30" s="193"/>
+      <c r="N30" s="193">
         <f>SUM(BA7:BC7,BA20:BC21,BA37:BC38,BA54:BC55)</f>
         <v>35</v>
       </c>
-      <c r="O30" s="187"/>
-      <c r="P30" s="187"/>
-      <c r="Q30" s="186">
+      <c r="O30" s="193"/>
+      <c r="P30" s="193"/>
+      <c r="Q30" s="194">
         <f>SUM(BD7:BF7,BD20:BF21,BD37:BF38,BD54:BF55)</f>
         <v>18</v>
       </c>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186">
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194">
         <f t="shared" ref="T30" si="35">SUM(B30:S31)</f>
         <v>103</v>
       </c>
-      <c r="U30" s="183"/>
+      <c r="U30" s="202"/>
       <c r="AB30" s="141"/>
       <c r="AC30" s="40" t="str">
         <f>'3_PDC'!U7</f>
@@ -13253,7 +13282,7 @@
         <f>'3_PDC'!Z7</f>
         <v>Fase</v>
       </c>
-      <c r="AI30" s="194"/>
+      <c r="AI30" s="190"/>
       <c r="AK30" s="5">
         <f>SUM(AI31:AI44)</f>
         <v>373</v>
@@ -13264,27 +13293,27 @@
       </c>
     </row>
     <row r="31" spans="1:60">
-      <c r="A31" s="188"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="186"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="187"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="183"/>
+      <c r="A31" s="192"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="193"/>
+      <c r="O31" s="193"/>
+      <c r="P31" s="193"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="202"/>
       <c r="AB31" s="44" t="str">
         <f>'3_PDC'!T8</f>
         <v>Begolo Marco</v>
@@ -13313,7 +13342,7 @@
         <f>'3_PDC'!Z8</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI31" s="201">
+      <c r="AI31" s="191">
         <f>'3_PDC'!AA8</f>
         <v>52</v>
       </c>
@@ -13399,50 +13428,50 @@
       </c>
     </row>
     <row r="32" spans="1:60">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="186">
+      <c r="B32" s="194">
         <f>SUM(AO8:AQ8,AO22:AQ23,AO39:AQ40,AO56:AQ57)</f>
         <v>9</v>
       </c>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186">
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="194">
         <f>SUM(AR8:AT8,AR22:AT23,AR39:AT40,AR56:AT57)</f>
         <v>11</v>
       </c>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186">
+      <c r="F32" s="194"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="194">
         <f>SUM(AU8:AW8,AU22:AW23,AU39:AW40,AU56:AW57)</f>
         <v>2</v>
       </c>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186">
+      <c r="I32" s="194"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="194">
         <f>SUM(AX8:AZ8,AX22:AZ23,AX39:AZ40,AX56:AZ57)</f>
         <v>20</v>
       </c>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="187">
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="193">
         <f>SUM(BA8:BC8,BA22:BC23,BA39:BC40,BA56:BC57)</f>
         <v>37</v>
       </c>
-      <c r="O32" s="187"/>
-      <c r="P32" s="187"/>
-      <c r="Q32" s="186">
+      <c r="O32" s="193"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="194">
         <f>SUM(BD8:BF8,BD22:BF23,BD39:BF40,BD56:BF57)</f>
         <v>23</v>
       </c>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="186">
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194">
         <f t="shared" ref="T32" si="51">SUM(B32:S33)</f>
         <v>102</v>
       </c>
-      <c r="U32" s="183"/>
+      <c r="U32" s="202"/>
       <c r="AB32" s="49">
         <f>'3_PDC'!T9</f>
         <v>0</v>
@@ -13471,7 +13500,7 @@
         <f>'3_PDC'!Z9</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI32" s="189"/>
+      <c r="AI32" s="183"/>
       <c r="AO32" s="5">
         <f>IF($AC32=AO$2,$AD32,0)</f>
         <v>0</v>
@@ -13550,27 +13579,27 @@
       </c>
     </row>
     <row r="33" spans="1:60">
-      <c r="A33" s="188"/>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
-      <c r="L33" s="186"/>
-      <c r="M33" s="186"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="187"/>
-      <c r="P33" s="187"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="186"/>
-      <c r="U33" s="183"/>
+      <c r="A33" s="192"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="193"/>
+      <c r="O33" s="193"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="202"/>
       <c r="AB33" s="44" t="str">
         <f>'3_PDC'!T10</f>
         <v>Facchin Gabriele</v>
@@ -13599,7 +13628,7 @@
         <f>'3_PDC'!Z10</f>
         <v>PDC 3.1</v>
       </c>
-      <c r="AI33" s="189">
+      <c r="AI33" s="183">
         <f>'3_PDC'!AA10</f>
         <v>52</v>
       </c>
@@ -13681,50 +13710,50 @@
       </c>
     </row>
     <row r="34" spans="1:60">
-      <c r="A34" s="188" t="s">
+      <c r="A34" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="186">
+      <c r="B34" s="194">
         <f>SUM(AO9:AQ9,AO24:AQ25,AO41:AQ42,AO58:AQ59)</f>
         <v>6</v>
       </c>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186">
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="194">
         <f>SUM(AR9:AT9,AR24:AT25,AR41:AT42,AR58:AT59)</f>
         <v>2</v>
       </c>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186">
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194">
         <f>SUM(AU9:AW9,AU24:AW25,AU41:AW42,AU58:AW59)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="187">
+      <c r="I34" s="194"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="193">
         <f>SUM(AX9:AZ9,AX24:AZ25,AX41:AZ42,AX58:AZ59)</f>
         <v>27</v>
       </c>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="187">
+      <c r="L34" s="193"/>
+      <c r="M34" s="193"/>
+      <c r="N34" s="193">
         <f>SUM(BA9:BC9,BA24:BC25,BA41:BC42,BA58:BC59)</f>
         <v>40</v>
       </c>
-      <c r="O34" s="187"/>
-      <c r="P34" s="187"/>
-      <c r="Q34" s="187">
+      <c r="O34" s="193"/>
+      <c r="P34" s="193"/>
+      <c r="Q34" s="193">
         <f>SUM(BD9:BF9,BD24:BF25,BD41:BF42,BD58:BF59)</f>
         <v>25</v>
       </c>
-      <c r="R34" s="187"/>
-      <c r="S34" s="187"/>
-      <c r="T34" s="186">
+      <c r="R34" s="193"/>
+      <c r="S34" s="193"/>
+      <c r="T34" s="194">
         <f t="shared" ref="T34" si="55">SUM(B34:S35)</f>
         <v>100</v>
       </c>
-      <c r="U34" s="183"/>
+      <c r="U34" s="202"/>
       <c r="AB34" s="44">
         <f>'3_PDC'!T11</f>
         <v>0</v>
@@ -13753,7 +13782,7 @@
         <f>'3_PDC'!Z11</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI34" s="189"/>
+      <c r="AI34" s="183"/>
       <c r="AO34" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -13832,27 +13861,27 @@
       </c>
     </row>
     <row r="35" spans="1:60">
-      <c r="A35" s="188"/>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="186"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="187"/>
-      <c r="P35" s="187"/>
-      <c r="Q35" s="187"/>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
-      <c r="T35" s="186"/>
-      <c r="U35" s="183"/>
+      <c r="A35" s="192"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="193"/>
+      <c r="M35" s="193"/>
+      <c r="N35" s="193"/>
+      <c r="O35" s="193"/>
+      <c r="P35" s="193"/>
+      <c r="Q35" s="193"/>
+      <c r="R35" s="193"/>
+      <c r="S35" s="193"/>
+      <c r="T35" s="194"/>
+      <c r="U35" s="202"/>
       <c r="AB35" s="53" t="str">
         <f>'3_PDC'!T12</f>
         <v>Cornaglia Alessando</v>
@@ -13881,7 +13910,7 @@
         <f>'3_PDC'!Z12</f>
         <v>PDC 4.4 e 5</v>
       </c>
-      <c r="AI35" s="189">
+      <c r="AI35" s="183">
         <f>'3_PDC'!AA12</f>
         <v>52</v>
       </c>
@@ -13970,50 +13999,50 @@
       </c>
     </row>
     <row r="36" spans="1:60">
-      <c r="A36" s="188" t="s">
+      <c r="A36" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="186">
+      <c r="B36" s="194">
         <f>SUM(AO10:AQ10,AO26:AQ27,AO43:AQ44,AO60:AQ61)</f>
         <v>2</v>
       </c>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186">
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194">
         <f>SUM(AR10:AT10,AR26:AT27,AR43:AT44,AR60:AT61)</f>
         <v>8</v>
       </c>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186">
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194">
         <f>SUM(AU10:AW10,AU26:AW27,AU43:AW44,AU60:AW61)</f>
         <v>7</v>
       </c>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="187">
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="193">
         <f>SUM(AX10:AZ10,AX26:AZ27,AX43:AZ44,AX60:AZ61)</f>
         <v>51</v>
       </c>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="186">
+      <c r="L36" s="193"/>
+      <c r="M36" s="193"/>
+      <c r="N36" s="194">
         <f>SUM(BA10:BC10,BA26:BC27,BA43:BC44,BA60:BC61)</f>
         <v>10</v>
       </c>
-      <c r="O36" s="186"/>
-      <c r="P36" s="186"/>
-      <c r="Q36" s="186">
+      <c r="O36" s="194"/>
+      <c r="P36" s="194"/>
+      <c r="Q36" s="194">
         <f>SUM(BD10:BF10,BD26:BF27,BD43:BF44,BD60:BF61)</f>
         <v>18</v>
       </c>
-      <c r="R36" s="186"/>
-      <c r="S36" s="186"/>
-      <c r="T36" s="186">
+      <c r="R36" s="194"/>
+      <c r="S36" s="194"/>
+      <c r="T36" s="194">
         <f t="shared" ref="T36" si="56">SUM(B36:S37)</f>
         <v>96</v>
       </c>
-      <c r="U36" s="183"/>
+      <c r="U36" s="202"/>
       <c r="AB36" s="49">
         <f>'3_PDC'!T13</f>
         <v>0</v>
@@ -14042,7 +14071,7 @@
         <f>'3_PDC'!Z13</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI36" s="189"/>
+      <c r="AI36" s="183"/>
       <c r="AK36" s="5">
         <f>SUM(BD31:BF44)</f>
         <v>100</v>
@@ -14125,27 +14154,27 @@
       </c>
     </row>
     <row r="37" spans="1:60">
-      <c r="A37" s="188"/>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="187"/>
-      <c r="N37" s="186"/>
-      <c r="O37" s="186"/>
-      <c r="P37" s="186"/>
-      <c r="Q37" s="186"/>
-      <c r="R37" s="186"/>
-      <c r="S37" s="186"/>
-      <c r="T37" s="186"/>
-      <c r="U37" s="183"/>
+      <c r="A37" s="192"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="193"/>
+      <c r="M37" s="193"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="194"/>
+      <c r="P37" s="194"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="194"/>
+      <c r="S37" s="194"/>
+      <c r="T37" s="194"/>
+      <c r="U37" s="202"/>
       <c r="AB37" s="44" t="str">
         <f>'3_PDC'!T14</f>
         <v>Dalla Pietà Massimo</v>
@@ -14174,7 +14203,7 @@
         <f>'3_PDC'!Z14</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI37" s="189">
+      <c r="AI37" s="183">
         <f>'3_PDC'!AA14</f>
         <v>57</v>
       </c>
@@ -14256,50 +14285,50 @@
       </c>
     </row>
     <row r="38" spans="1:60">
-      <c r="A38" s="185" t="s">
+      <c r="A38" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="186">
+      <c r="B38" s="194">
         <f>SUM(B24:D37)</f>
         <v>59</v>
       </c>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186">
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194">
         <f t="shared" ref="E38" si="57">SUM(E24:G37)</f>
         <v>49</v>
       </c>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186">
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194">
         <f>SUM(H24:J37)</f>
         <v>20</v>
       </c>
-      <c r="I38" s="186"/>
-      <c r="J38" s="186"/>
-      <c r="K38" s="186">
+      <c r="I38" s="194"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="194">
         <f t="shared" ref="K38" si="58">SUM(K24:M37)</f>
         <v>199</v>
       </c>
-      <c r="L38" s="186"/>
-      <c r="M38" s="186"/>
-      <c r="N38" s="186">
+      <c r="L38" s="194"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="194">
         <f t="shared" ref="N38" si="59">SUM(N24:P37)</f>
         <v>243</v>
       </c>
-      <c r="O38" s="186"/>
-      <c r="P38" s="186"/>
-      <c r="Q38" s="186">
+      <c r="O38" s="194"/>
+      <c r="P38" s="194"/>
+      <c r="Q38" s="194">
         <f>SUM(Q24:S37)</f>
         <v>120</v>
       </c>
-      <c r="R38" s="186"/>
-      <c r="S38" s="186"/>
-      <c r="T38" s="186">
+      <c r="R38" s="194"/>
+      <c r="S38" s="194"/>
+      <c r="T38" s="194">
         <f>SUM(B38:S39)</f>
         <v>690</v>
       </c>
-      <c r="U38" s="183"/>
+      <c r="U38" s="202"/>
       <c r="AB38" s="44">
         <f>'3_PDC'!T15</f>
         <v>0</v>
@@ -14328,7 +14357,7 @@
         <f>'3_PDC'!Z15</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI38" s="189"/>
+      <c r="AI38" s="183"/>
       <c r="AO38" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14407,27 +14436,27 @@
       </c>
     </row>
     <row r="39" spans="1:60">
-      <c r="A39" s="185"/>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
-      <c r="I39" s="186"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="186"/>
-      <c r="L39" s="186"/>
-      <c r="M39" s="186"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="186"/>
-      <c r="P39" s="186"/>
-      <c r="Q39" s="186"/>
-      <c r="R39" s="186"/>
-      <c r="S39" s="186"/>
-      <c r="T39" s="186"/>
-      <c r="U39" s="183"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="194"/>
+      <c r="O39" s="194"/>
+      <c r="P39" s="194"/>
+      <c r="Q39" s="194"/>
+      <c r="R39" s="194"/>
+      <c r="S39" s="194"/>
+      <c r="T39" s="194"/>
+      <c r="U39" s="202"/>
       <c r="AB39" s="53" t="str">
         <f>'3_PDC'!T16</f>
         <v>Braghetto Lorenzo</v>
@@ -14456,7 +14485,7 @@
         <f>'3_PDC'!Z16</f>
         <v>PDC 4.4</v>
       </c>
-      <c r="AI39" s="189">
+      <c r="AI39" s="183">
         <f>'3_PDC'!AA16</f>
         <v>54</v>
       </c>
@@ -14567,7 +14596,7 @@
         <f>'3_PDC'!Z17</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI40" s="189"/>
+      <c r="AI40" s="183"/>
       <c r="AO40" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14675,7 +14704,7 @@
         <f>'3_PDC'!Z18</f>
         <v>PDC 6</v>
       </c>
-      <c r="AI41" s="189">
+      <c r="AI41" s="183">
         <f>'3_PDC'!AA18</f>
         <v>54</v>
       </c>
@@ -14786,7 +14815,7 @@
         <f>'3_PDC'!Z19</f>
         <v>PDC 3.2, 5 e 7</v>
       </c>
-      <c r="AI42" s="189"/>
+      <c r="AI42" s="183"/>
       <c r="AO42" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -14894,7 +14923,7 @@
         <f>'3_PDC'!Z20</f>
         <v>PDC 4.3</v>
       </c>
-      <c r="AI43" s="189">
+      <c r="AI43" s="183">
         <f>'3_PDC'!AA20</f>
         <v>52</v>
       </c>
@@ -15005,7 +15034,7 @@
         <f>'3_PDC'!Z21</f>
         <v>PDC 7</v>
       </c>
-      <c r="AI44" s="203"/>
+      <c r="AI44" s="184"/>
       <c r="AO44" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -15098,19 +15127,19 @@
       <c r="AB46" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AC46" s="197" t="str">
+      <c r="AC46" s="185" t="str">
         <f>'4_VV'!U3</f>
         <v>I Periodo</v>
       </c>
-      <c r="AD46" s="198"/>
-      <c r="AE46" s="199"/>
-      <c r="AF46" s="197" t="str">
+      <c r="AD46" s="186"/>
+      <c r="AE46" s="187"/>
+      <c r="AF46" s="185" t="str">
         <f>'4_VV'!X3</f>
         <v>II Periodo</v>
       </c>
-      <c r="AG46" s="198"/>
-      <c r="AH46" s="200"/>
-      <c r="AI46" s="193" t="str">
+      <c r="AG46" s="186"/>
+      <c r="AH46" s="188"/>
+      <c r="AI46" s="189" t="str">
         <f>'4_VV'!AA3</f>
         <v>Totale</v>
       </c>
@@ -15150,7 +15179,7 @@
         <f>'4_VV'!Z4</f>
         <v>Fase</v>
       </c>
-      <c r="AI47" s="194"/>
+      <c r="AI47" s="190"/>
       <c r="BG47" s="144">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -15186,7 +15215,7 @@
         <f>'4_VV'!Z5</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI48" s="201">
+      <c r="AI48" s="191">
         <f>'4_VV'!AA5</f>
         <v>18</v>
       </c>
@@ -15300,7 +15329,7 @@
         <f>'4_VV'!Z6</f>
         <v>0</v>
       </c>
-      <c r="AI49" s="189"/>
+      <c r="AI49" s="183"/>
       <c r="AO49" s="5">
         <f>IF($AC49=AO$2,$AD49,0)</f>
         <v>0</v>
@@ -15407,7 +15436,7 @@
         <f>'4_VV'!Z7</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI50" s="189">
+      <c r="AI50" s="183">
         <f>'4_VV'!AA7</f>
         <v>18</v>
       </c>
@@ -15536,7 +15565,7 @@
         <f>'4_VV'!Z8</f>
         <v>VV 3.2</v>
       </c>
-      <c r="AI51" s="189"/>
+      <c r="AI51" s="183"/>
       <c r="AO51" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15657,7 +15686,7 @@
         <f>'4_VV'!Z9</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI52" s="189">
+      <c r="AI52" s="183">
         <f>'4_VV'!AA9</f>
         <v>18</v>
       </c>
@@ -15781,7 +15810,7 @@
         <f>'4_VV'!Z10</f>
         <v>0</v>
       </c>
-      <c r="AI53" s="189"/>
+      <c r="AI53" s="183"/>
       <c r="AO53" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -15902,7 +15931,7 @@
         <f>'4_VV'!Z11</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI54" s="189">
+      <c r="AI54" s="183">
         <f>'4_VV'!AA11</f>
         <v>18</v>
       </c>
@@ -16026,7 +16055,7 @@
         <f>'4_VV'!Z12</f>
         <v>0</v>
       </c>
-      <c r="AI55" s="189"/>
+      <c r="AI55" s="183"/>
       <c r="AO55" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16147,7 +16176,7 @@
         <f>'4_VV'!Z13</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI56" s="189">
+      <c r="AI56" s="183">
         <f>'4_VV'!AA13</f>
         <v>18</v>
       </c>
@@ -16271,7 +16300,7 @@
         <f>'4_VV'!Z14</f>
         <v>0</v>
       </c>
-      <c r="AI57" s="189"/>
+      <c r="AI57" s="183"/>
       <c r="AO57" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16389,7 +16418,7 @@
         <f>'4_VV'!Z15</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI58" s="189">
+      <c r="AI58" s="183">
         <f>'4_VV'!AA15</f>
         <v>18</v>
       </c>
@@ -16499,7 +16528,7 @@
         <f>'4_VV'!Z16</f>
         <v>0</v>
       </c>
-      <c r="AI59" s="189"/>
+      <c r="AI59" s="183"/>
       <c r="AO59" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16606,7 +16635,7 @@
         <f>'4_VV'!Z17</f>
         <v>VV 3.1</v>
       </c>
-      <c r="AI60" s="189">
+      <c r="AI60" s="183">
         <f>'4_VV'!AA17</f>
         <v>16</v>
       </c>
@@ -16716,7 +16745,7 @@
         <f>'4_VV'!Z18</f>
         <v>0</v>
       </c>
-      <c r="AI61" s="203"/>
+      <c r="AI61" s="184"/>
       <c r="AO61" s="5">
         <f t="shared" si="75"/>
         <v>0</v>
@@ -16796,18 +16825,82 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AC12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AK12"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="AI56:AI57"/>
+    <mergeCell ref="AI58:AI59"/>
+    <mergeCell ref="AI60:AI61"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AI47"/>
+    <mergeCell ref="AI48:AI49"/>
+    <mergeCell ref="AI50:AI51"/>
+    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AI39:AI40"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="Q36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AI37:AI38"/>
+    <mergeCell ref="AI35:AI36"/>
+    <mergeCell ref="AI54:AI55"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D39"/>
+    <mergeCell ref="E38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="K38:M39"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="K36:M37"/>
+    <mergeCell ref="N36:P37"/>
+    <mergeCell ref="Q38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="E34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="K34:M35"/>
+    <mergeCell ref="N34:P35"/>
+    <mergeCell ref="B24:D25"/>
+    <mergeCell ref="E24:G25"/>
+    <mergeCell ref="H24:J25"/>
+    <mergeCell ref="K24:M25"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="E32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="K32:M33"/>
+    <mergeCell ref="N32:P33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D31"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="K30:M31"/>
+    <mergeCell ref="N30:P31"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="Q30:S31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="AI31:AI32"/>
+    <mergeCell ref="Q26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="Q32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="Q28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
     <mergeCell ref="AL12:AL13"/>
     <mergeCell ref="AL14:AL15"/>
     <mergeCell ref="AL16:AL17"/>
@@ -16832,82 +16925,18 @@
     <mergeCell ref="K26:M27"/>
     <mergeCell ref="N26:P27"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Q30:S31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="AI31:AI32"/>
-    <mergeCell ref="Q26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="Q32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="Q28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="B24:D25"/>
-    <mergeCell ref="E24:G25"/>
-    <mergeCell ref="H24:J25"/>
-    <mergeCell ref="K24:M25"/>
-    <mergeCell ref="N24:P25"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="E32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="K32:M33"/>
-    <mergeCell ref="N32:P33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D31"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="K30:M31"/>
-    <mergeCell ref="N30:P31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="E38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="K38:M39"/>
-    <mergeCell ref="N38:P39"/>
-    <mergeCell ref="Q34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="K36:M37"/>
-    <mergeCell ref="N36:P37"/>
-    <mergeCell ref="Q38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="E34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="K34:M35"/>
-    <mergeCell ref="N34:P35"/>
-    <mergeCell ref="AI39:AI40"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="Q36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="AI37:AI38"/>
-    <mergeCell ref="AI35:AI36"/>
-    <mergeCell ref="AI54:AI55"/>
-    <mergeCell ref="AI56:AI57"/>
-    <mergeCell ref="AI58:AI59"/>
-    <mergeCell ref="AI60:AI61"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AI47"/>
-    <mergeCell ref="AI48:AI49"/>
-    <mergeCell ref="AI50:AI51"/>
-    <mergeCell ref="AI52:AI53"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AC12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AK12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
   </mergeCells>
   <conditionalFormatting sqref="AB14:AL27">
     <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
@@ -17046,20 +17075,20 @@
       <c r="N2" s="6">
         <v>30</v>
       </c>
-      <c r="O2" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="190" t="s">
+      <c r="O2" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="191"/>
-      <c r="R2" s="192"/>
-      <c r="S2" s="190" t="s">
+      <c r="Q2" s="196"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="195" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="191"/>
-      <c r="U2" s="192"/>
-      <c r="V2" s="193" t="s">
+      <c r="T2" s="196"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="189" t="s">
         <v>14</v>
       </c>
     </row>
@@ -17121,7 +17150,7 @@
       <c r="U3" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="194"/>
+      <c r="V3" s="190"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="17" t="s">
@@ -18348,25 +18377,25 @@
       <c r="P9" s="172"/>
       <c r="Q9" s="172"/>
       <c r="R9" s="172"/>
-      <c r="U9" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="197" t="s">
+      <c r="U9" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="198"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="197" t="s">
+      <c r="W9" s="186"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Z9" s="198"/>
-      <c r="AA9" s="199"/>
-      <c r="AB9" s="197" t="s">
+      <c r="Z9" s="186"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="185" t="s">
         <v>114</v>
       </c>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="200"/>
-      <c r="AE9" s="193" t="s">
+      <c r="AC9" s="186"/>
+      <c r="AD9" s="188"/>
+      <c r="AE9" s="189" t="s">
         <v>14</v>
       </c>
     </row>
@@ -18409,7 +18438,7 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="U10" s="194"/>
+      <c r="U10" s="190"/>
       <c r="V10" s="40" t="s">
         <v>26</v>
       </c>
@@ -18437,7 +18466,7 @@
       <c r="AD10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AE10" s="194"/>
+      <c r="AE10" s="190"/>
     </row>
     <row r="11" spans="1:31" ht="13.5" thickBot="1">
       <c r="A11" s="7" t="s">
@@ -18487,10 +18516,10 @@
       <c r="Q11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="205" t="s">
+      <c r="R11" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="183"/>
+      <c r="S11" s="202"/>
       <c r="U11" s="44" t="s">
         <v>7</v>
       </c>
@@ -18521,7 +18550,7 @@
       <c r="AD11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="201">
+      <c r="AE11" s="191">
         <f>SUM(Z11:Z12,AC11:AC12,W11:W12)</f>
         <v>26</v>
       </c>
@@ -18585,7 +18614,7 @@
       <c r="AB12" s="50"/>
       <c r="AC12" s="51"/>
       <c r="AD12" s="24"/>
-      <c r="AE12" s="189"/>
+      <c r="AE12" s="183"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="14"/>
@@ -18662,7 +18691,7 @@
       <c r="AD13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="189">
+      <c r="AE13" s="183">
         <f t="shared" ref="AE13" si="7">SUM(Z13:Z14,AC13:AC14,W13:W14)</f>
         <v>27</v>
       </c>
@@ -18732,7 +18761,7 @@
       <c r="AB14" s="45"/>
       <c r="AC14" s="46"/>
       <c r="AD14" s="8"/>
-      <c r="AE14" s="189"/>
+      <c r="AE14" s="183"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="7" t="s">
@@ -18813,7 +18842,7 @@
       <c r="AD15" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="AE15" s="189">
+      <c r="AE15" s="183">
         <f t="shared" ref="AE15" si="8">SUM(Z15:Z16,AC15:AC16,W15:W16)</f>
         <v>26</v>
       </c>
@@ -18889,7 +18918,7 @@
       <c r="AD16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AE16" s="189"/>
+      <c r="AE16" s="183"/>
     </row>
     <row r="17" spans="1:31" ht="13.5" thickBot="1">
       <c r="A17" s="17" t="s">
@@ -18970,7 +18999,7 @@
       <c r="AD17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AE17" s="189">
+      <c r="AE17" s="183">
         <f t="shared" ref="AE17" si="9">SUM(Z17:Z18,AC17:AC18,W17:W18)</f>
         <v>28</v>
       </c>
@@ -19036,7 +19065,7 @@
       <c r="AD18" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AE18" s="189"/>
+      <c r="AE18" s="183"/>
     </row>
     <row r="19" spans="1:31" ht="13.5" thickBot="1">
       <c r="U19" s="53" t="s">
@@ -19069,7 +19098,7 @@
       <c r="AD19" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AE19" s="189">
+      <c r="AE19" s="183">
         <f t="shared" ref="AE19" si="10">SUM(Z19:Z20,AC19:AC20,W19:W20)</f>
         <v>30</v>
       </c>
@@ -19116,7 +19145,7 @@
         <v>2</v>
       </c>
       <c r="AD20" s="24"/>
-      <c r="AE20" s="189"/>
+      <c r="AE20" s="183"/>
     </row>
     <row r="21" spans="1:31">
       <c r="U21" s="44" t="s">
@@ -19149,7 +19178,7 @@
       <c r="AD21" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="AE21" s="189">
+      <c r="AE21" s="183">
         <f t="shared" ref="AE21" si="11">SUM(Z21:Z22,AC21:AC22,W21:W22)</f>
         <v>28</v>
       </c>
@@ -19166,7 +19195,7 @@
       <c r="AB22" s="45"/>
       <c r="AC22" s="46"/>
       <c r="AD22" s="8"/>
-      <c r="AE22" s="189"/>
+      <c r="AE22" s="183"/>
     </row>
     <row r="23" spans="1:31" ht="13.5" thickBot="1">
       <c r="U23" s="53" t="s">
@@ -19199,7 +19228,7 @@
       <c r="AD23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="AE23" s="189">
+      <c r="AE23" s="183">
         <f t="shared" ref="AE23" si="12">SUM(Z23:Z24,AC23:AC24,W23:W24)</f>
         <v>28</v>
       </c>
@@ -19266,7 +19295,7 @@
       <c r="AD24" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="AE24" s="203"/>
+      <c r="AE24" s="184"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="7" t="s">
@@ -19489,17 +19518,17 @@
       <c r="R28" s="6">
         <v>15</v>
       </c>
-      <c r="U28" s="206"/>
-      <c r="V28" s="206"/>
-      <c r="W28" s="206"/>
-      <c r="X28" s="206"/>
-      <c r="Y28" s="206"/>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="206"/>
-      <c r="AB28" s="206"/>
-      <c r="AC28" s="206"/>
-      <c r="AD28" s="206"/>
-      <c r="AE28" s="206"/>
+      <c r="U28" s="205"/>
+      <c r="V28" s="205"/>
+      <c r="W28" s="205"/>
+      <c r="X28" s="205"/>
+      <c r="Y28" s="205"/>
+      <c r="Z28" s="205"/>
+      <c r="AA28" s="205"/>
+      <c r="AB28" s="205"/>
+      <c r="AC28" s="205"/>
+      <c r="AD28" s="205"/>
+      <c r="AE28" s="205"/>
     </row>
     <row r="29" spans="1:31" ht="13.5" thickBot="1">
       <c r="A29" s="7"/>
@@ -19548,7 +19577,7 @@
       <c r="R29" s="6">
         <v>22</v>
       </c>
-      <c r="U29" s="206"/>
+      <c r="U29" s="205"/>
       <c r="V29" s="73"/>
       <c r="W29" s="73"/>
       <c r="X29" s="73"/>
@@ -19558,7 +19587,7 @@
       <c r="AB29" s="73"/>
       <c r="AC29" s="73"/>
       <c r="AD29" s="73"/>
-      <c r="AE29" s="206"/>
+      <c r="AE29" s="205"/>
     </row>
     <row r="30" spans="1:31" ht="13.5" thickBot="1">
       <c r="A30" s="21" t="s">
@@ -19621,7 +19650,7 @@
       <c r="AB30" s="73"/>
       <c r="AC30" s="73"/>
       <c r="AD30" s="73"/>
-      <c r="AE30" s="206"/>
+      <c r="AE30" s="205"/>
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="7" t="s">
@@ -19673,7 +19702,7 @@
       <c r="AB31" s="73"/>
       <c r="AC31" s="73"/>
       <c r="AD31" s="73"/>
-      <c r="AE31" s="206"/>
+      <c r="AE31" s="205"/>
     </row>
     <row r="32" spans="1:31">
       <c r="A32" s="17" t="s">
@@ -19723,7 +19752,7 @@
       <c r="AB32" s="73"/>
       <c r="AC32" s="73"/>
       <c r="AD32" s="73"/>
-      <c r="AE32" s="206"/>
+      <c r="AE32" s="205"/>
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="14"/>
@@ -19769,7 +19798,7 @@
       <c r="AB33" s="73"/>
       <c r="AC33" s="73"/>
       <c r="AD33" s="73"/>
-      <c r="AE33" s="206"/>
+      <c r="AE33" s="205"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34" s="7" t="s">
@@ -19819,7 +19848,7 @@
       <c r="AB34" s="73"/>
       <c r="AC34" s="73"/>
       <c r="AD34" s="73"/>
-      <c r="AE34" s="206"/>
+      <c r="AE34" s="205"/>
     </row>
     <row r="35" spans="1:31">
       <c r="A35" s="17" t="s">
@@ -19869,7 +19898,7 @@
       <c r="AB35" s="73"/>
       <c r="AC35" s="73"/>
       <c r="AD35" s="73"/>
-      <c r="AE35" s="206"/>
+      <c r="AE35" s="205"/>
     </row>
     <row r="36" spans="1:31">
       <c r="A36" s="14"/>
@@ -19915,7 +19944,7 @@
       <c r="AB36" s="73"/>
       <c r="AC36" s="73"/>
       <c r="AD36" s="73"/>
-      <c r="AE36" s="206"/>
+      <c r="AE36" s="205"/>
     </row>
     <row r="37" spans="1:31">
       <c r="A37" s="7" t="s">
@@ -19965,7 +19994,7 @@
       <c r="AB37" s="73"/>
       <c r="AC37" s="73"/>
       <c r="AD37" s="181"/>
-      <c r="AE37" s="206"/>
+      <c r="AE37" s="205"/>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="7" t="s">
@@ -20015,7 +20044,7 @@
       <c r="AB38" s="73"/>
       <c r="AC38" s="73"/>
       <c r="AD38" s="73"/>
-      <c r="AE38" s="206"/>
+      <c r="AE38" s="205"/>
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="59" t="s">
@@ -20065,7 +20094,7 @@
       <c r="AB39" s="73"/>
       <c r="AC39" s="73"/>
       <c r="AD39" s="73"/>
-      <c r="AE39" s="206"/>
+      <c r="AE39" s="205"/>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="17" t="s">
@@ -20115,7 +20144,7 @@
       <c r="AB40" s="73"/>
       <c r="AC40" s="73"/>
       <c r="AD40" s="73"/>
-      <c r="AE40" s="206"/>
+      <c r="AE40" s="205"/>
     </row>
     <row r="41" spans="1:31" ht="13.5" thickBot="1">
       <c r="A41" s="62"/>
@@ -20161,7 +20190,7 @@
       <c r="AB41" s="73"/>
       <c r="AC41" s="73"/>
       <c r="AD41" s="73"/>
-      <c r="AE41" s="206"/>
+      <c r="AE41" s="205"/>
     </row>
     <row r="42" spans="1:31" ht="13.5" thickBot="1">
       <c r="U42" s="73"/>
@@ -20174,7 +20203,7 @@
       <c r="AB42" s="73"/>
       <c r="AC42" s="73"/>
       <c r="AD42" s="73"/>
-      <c r="AE42" s="206"/>
+      <c r="AE42" s="205"/>
     </row>
     <row r="43" spans="1:31" ht="13.5" thickBot="1">
       <c r="A43" s="70" t="s">
@@ -20204,7 +20233,7 @@
       <c r="AB43" s="73"/>
       <c r="AC43" s="73"/>
       <c r="AD43" s="73"/>
-      <c r="AE43" s="206"/>
+      <c r="AE43" s="205"/>
     </row>
     <row r="44" spans="1:31">
       <c r="U44" s="73"/>
@@ -20221,18 +20250,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="AE40:AE41"/>
-    <mergeCell ref="AE42:AE43"/>
-    <mergeCell ref="AE30:AE31"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="AE34:AE35"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="U28:U29"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AE21:AE22"/>
     <mergeCell ref="AE23:AE24"/>
     <mergeCell ref="AE9:AE10"/>
@@ -20241,11 +20263,18 @@
     <mergeCell ref="AE15:AE16"/>
     <mergeCell ref="AE17:AE18"/>
     <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AE29"/>
+    <mergeCell ref="AE40:AE41"/>
+    <mergeCell ref="AE42:AE43"/>
+    <mergeCell ref="AE30:AE31"/>
+    <mergeCell ref="AE32:AE33"/>
+    <mergeCell ref="AE34:AE35"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AE38:AE39"/>
   </mergeCells>
   <conditionalFormatting sqref="Z26">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="notEqual">
@@ -20289,8 +20318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -20340,6 +20369,7 @@
       <c r="F1" s="116" t="s">
         <v>20</v>
       </c>
+      <c r="G1" s="219"/>
       <c r="H1" s="6" t="s">
         <v>21</v>
       </c>
@@ -20386,6 +20416,7 @@
         <f>SUM(D2:E2)</f>
         <v>8</v>
       </c>
+      <c r="G2" s="220"/>
       <c r="H2" s="6">
         <f>IF($C2="Responsabile",$F2,0)</f>
         <v>0</v>
@@ -20411,11 +20442,11 @@
       </c>
       <c r="P2" s="15">
         <f>SUM(H2:H26)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="16">
         <f>P2*R2</f>
-        <v>900</v>
+        <v>990</v>
       </c>
       <c r="R2" s="6">
         <v>30</v>
@@ -20435,6 +20466,7 @@
         <f t="shared" ref="F3:F26" si="0">SUM(D3:E3)</f>
         <v>2</v>
       </c>
+      <c r="G3" s="220"/>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H26" si="1">IF($C3="Responsabile",$F3,0)</f>
         <v>2</v>
@@ -20480,13 +20512,16 @@
       <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="118">
-        <v>60</v>
+      <c r="D4" s="213">
+        <v>55</v>
       </c>
       <c r="E4" s="119"/>
       <c r="F4" s="108">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="G4" s="220" t="s">
+        <v>151</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
@@ -20502,7 +20537,7 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="5"/>
@@ -20513,11 +20548,11 @@
       </c>
       <c r="P4" s="22">
         <f>SUM(J2:J26)</f>
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="23">
         <f t="shared" si="6"/>
-        <v>1560</v>
+        <v>1440</v>
       </c>
       <c r="R4" s="6">
         <v>15</v>
@@ -20533,13 +20568,16 @@
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="69">
-        <v>25</v>
+      <c r="D5" s="212">
+        <v>20</v>
       </c>
       <c r="E5" s="117"/>
       <c r="F5" s="47">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="220" t="s">
+        <v>151</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
@@ -20551,7 +20589,7 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" si="4"/>
@@ -20566,11 +20604,11 @@
       </c>
       <c r="P5" s="22">
         <f>SUM(K2:K26)</f>
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="23">
         <f t="shared" si="6"/>
-        <v>2662</v>
+        <v>2552</v>
       </c>
       <c r="R5" s="6">
         <v>22</v>
@@ -20590,6 +20628,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="G6" s="220"/>
       <c r="H6" s="6">
         <f>IF($C6="Responsabile",$F6,0)</f>
         <v>2</v>
@@ -20615,29 +20654,29 @@
       </c>
       <c r="P6" s="19">
         <f>SUM(L2:L26)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="120">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="R6" s="6">
         <v>15</v>
       </c>
-      <c r="T6" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="197" t="s">
+      <c r="T6" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="198"/>
-      <c r="W6" s="199"/>
-      <c r="X6" s="197" t="s">
+      <c r="V6" s="186"/>
+      <c r="W6" s="187"/>
+      <c r="X6" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="200"/>
-      <c r="AA6" s="193" t="s">
+      <c r="Y6" s="186"/>
+      <c r="Z6" s="188"/>
+      <c r="AA6" s="189" t="s">
         <v>14</v>
       </c>
     </row>
@@ -20659,6 +20698,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="G7" s="220"/>
       <c r="H7" s="6">
         <f>IF($C7="Responsabile",$F7,0)</f>
         <v>0</v>
@@ -20688,9 +20728,9 @@
       </c>
       <c r="Q7" s="36">
         <f>SUM(Q2:Q6)</f>
-        <v>6982</v>
-      </c>
-      <c r="T7" s="194"/>
+        <v>6992</v>
+      </c>
+      <c r="T7" s="190"/>
       <c r="U7" s="40" t="s">
         <v>26</v>
       </c>
@@ -20709,7 +20749,7 @@
       <c r="Z7" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="194"/>
+      <c r="AA7" s="190"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="7" t="s">
@@ -20721,13 +20761,16 @@
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="69">
-        <v>12</v>
+      <c r="D8" s="212">
+        <v>8</v>
       </c>
       <c r="E8" s="117"/>
       <c r="F8" s="47">
         <f>SUM(D8:E8)</f>
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G8" s="220" t="s">
+        <v>152</v>
       </c>
       <c r="H8" s="6">
         <f>IF($C8="Responsabile",$F8,0)</f>
@@ -20739,7 +20782,7 @@
       </c>
       <c r="J8" s="6">
         <f>IF($C8="Verificatore",$F8,0)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="4"/>
@@ -20770,7 +20813,7 @@
       <c r="Z8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="201">
+      <c r="AA8" s="191">
         <f>SUM(V8:V9,Y8:Y9)</f>
         <v>52</v>
       </c>
@@ -20789,6 +20832,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="G9" s="220"/>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -20822,7 +20866,7 @@
       <c r="Z9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="189"/>
+      <c r="AA9" s="183"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="17" t="s">
@@ -20842,6 +20886,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="G10" s="220"/>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20883,7 +20928,7 @@
       <c r="Z10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA10" s="189">
+      <c r="AA10" s="183">
         <f t="shared" ref="AA10" si="7">SUM(V10:V11,Y10:Y11)</f>
         <v>52</v>
       </c>
@@ -20906,6 +20951,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G11" s="219"/>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20945,7 +20991,7 @@
       <c r="Z11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA11" s="189"/>
+      <c r="AA11" s="183"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="14"/>
@@ -20961,6 +21007,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G12" s="219"/>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21005,7 +21052,7 @@
       <c r="Z12" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="AA12" s="189">
+      <c r="AA12" s="183">
         <f t="shared" ref="AA12" si="8">SUM(V12:V13,Y12:Y13)</f>
         <v>52</v>
       </c>
@@ -21020,13 +21067,16 @@
       <c r="C13" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="118">
-        <v>60</v>
+      <c r="D13" s="216">
+        <v>65</v>
       </c>
       <c r="E13" s="119"/>
       <c r="F13" s="108">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="G13" s="221" t="s">
+        <v>153</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
@@ -21046,7 +21096,7 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O13" s="208"/>
       <c r="P13" s="112"/>
@@ -21070,7 +21120,7 @@
       <c r="Z13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA13" s="189"/>
+      <c r="AA13" s="183"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="7" t="s">
@@ -21090,6 +21140,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="G14" s="221"/>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21134,7 +21185,7 @@
       <c r="Z14" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA14" s="189">
+      <c r="AA14" s="183">
         <f t="shared" ref="AA14" si="9">SUM(V14:V15,Y14:Y15)</f>
         <v>57</v>
       </c>
@@ -21153,6 +21204,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="G15" s="221"/>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -21195,7 +21247,7 @@
       <c r="Z15" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="AA15" s="189"/>
+      <c r="AA15" s="183"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="21" t="s">
@@ -21208,12 +21260,15 @@
         <v>6</v>
       </c>
       <c r="D16" s="118"/>
-      <c r="E16" s="119">
-        <v>40</v>
+      <c r="E16" s="215">
+        <v>45</v>
       </c>
       <c r="F16" s="108">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="G16" s="221" t="s">
+        <v>153</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
@@ -21233,7 +21288,7 @@
       </c>
       <c r="L16" s="6">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O16" s="21"/>
       <c r="P16" s="22"/>
@@ -21259,7 +21314,7 @@
       <c r="Z16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AA16" s="189">
+      <c r="AA16" s="183">
         <f t="shared" ref="AA16" si="10">SUM(V16:V17,Y16:Y17)</f>
         <v>54</v>
       </c>
@@ -21282,6 +21337,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="G17" s="221"/>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21324,7 +21380,7 @@
       <c r="Z17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="AA17" s="189"/>
+      <c r="AA17" s="183"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="7"/>
@@ -21340,6 +21396,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="G18" s="221"/>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -21384,7 +21441,7 @@
       <c r="Z18" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="189">
+      <c r="AA18" s="183">
         <f t="shared" ref="AA18" si="11">SUM(V18:V19,Y18:Y19)</f>
         <v>54</v>
       </c>
@@ -21400,12 +21457,15 @@
         <v>4</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="E19" s="60">
-        <v>4</v>
+      <c r="E19" s="217">
+        <v>5</v>
       </c>
       <c r="F19" s="56">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G19" s="221" t="s">
+        <v>154</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
@@ -21417,7 +21477,7 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="4"/>
@@ -21449,7 +21509,7 @@
       <c r="Z19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="189"/>
+      <c r="AA19" s="183"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" thickBot="1">
       <c r="A20" s="14"/>
@@ -21465,6 +21525,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="G20" s="221"/>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -21509,7 +21570,7 @@
       <c r="Z20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA20" s="189">
+      <c r="AA20" s="183">
         <f t="shared" ref="AA20" si="12">SUM(V20:V21,Y20:Y21)</f>
         <v>52</v>
       </c>
@@ -21525,16 +21586,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="117">
-        <v>4</v>
+      <c r="E21" s="214">
+        <v>6</v>
       </c>
       <c r="F21" s="47">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G21" s="221" t="s">
+        <v>155</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
@@ -21568,7 +21632,7 @@
       <c r="Z21" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="AA21" s="203"/>
+      <c r="AA21" s="184"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="7"/>
@@ -21584,6 +21648,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="G22" s="221"/>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21623,6 +21688,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="G23" s="221"/>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21658,6 +21724,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="G24" s="221"/>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21701,6 +21768,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="G25" s="221"/>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21729,16 +21797,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="79"/>
-      <c r="E26" s="64">
-        <v>4</v>
+      <c r="E26" s="218">
+        <v>5</v>
       </c>
       <c r="F26" s="128">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G26" s="221" t="s">
+        <v>154</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="2"/>
@@ -21758,6 +21829,7 @@
       </c>
     </row>
     <row r="27" spans="1:27" ht="13.5" thickBot="1">
+      <c r="G27" s="219"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -21772,19 +21844,20 @@
       <c r="C28" s="2"/>
       <c r="D28" s="129">
         <f>SUM(D2:D26)</f>
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E28" s="2">
         <f>SUM(E2:E26)</f>
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F28" s="129">
         <f>SUM(D28:E28)</f>
         <v>373</v>
       </c>
+      <c r="G28" s="219"/>
       <c r="H28" s="6">
         <f>SUM(H2:H26)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" ref="I28:L28" si="13">SUM(I2:I26)</f>
@@ -21792,19 +21865,25 @@
       </c>
       <c r="J28" s="6">
         <f t="shared" si="13"/>
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="13"/>
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="AA20:AA21"/>
     <mergeCell ref="O12:O13"/>
     <mergeCell ref="P12:Q12"/>
@@ -21812,12 +21891,6 @@
     <mergeCell ref="AA14:AA15"/>
     <mergeCell ref="AA16:AA17"/>
     <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AA8:AA9"/>
   </mergeCells>
   <conditionalFormatting sqref="Y24">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="notEqual">
@@ -22030,20 +22103,20 @@
       <c r="R3" s="6">
         <v>20</v>
       </c>
-      <c r="T3" s="193" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="197" t="s">
+      <c r="T3" s="189" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="185" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="198"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="197" t="s">
+      <c r="V3" s="186"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="193" t="s">
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="189" t="s">
         <v>14</v>
       </c>
     </row>
@@ -22095,7 +22168,7 @@
       <c r="R4" s="6">
         <v>15</v>
       </c>
-      <c r="T4" s="194"/>
+      <c r="T4" s="190"/>
       <c r="U4" s="40" t="s">
         <v>26</v>
       </c>
@@ -22114,7 +22187,7 @@
       <c r="Z4" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="194"/>
+      <c r="AA4" s="190"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="96" t="s">
@@ -22189,7 +22262,7 @@
       <c r="Z5" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="201">
+      <c r="AA5" s="191">
         <f>SUM(V5:V6,Y5:Y6)</f>
         <v>18</v>
       </c>
@@ -22259,7 +22332,7 @@
       <c r="X6" s="131"/>
       <c r="Y6" s="51"/>
       <c r="Z6" s="133"/>
-      <c r="AA6" s="189"/>
+      <c r="AA6" s="183"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" thickBot="1">
       <c r="A7" s="14"/>
@@ -22327,7 +22400,7 @@
       <c r="Z7" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="189">
+      <c r="AA7" s="183">
         <f t="shared" ref="AA7" si="7">SUM(V7:V8,Y7:Y8)</f>
         <v>18</v>
       </c>
@@ -22383,7 +22456,7 @@
       <c r="Z8" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="189"/>
+      <c r="AA8" s="183"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="59" t="s">
@@ -22444,7 +22517,7 @@
       <c r="Z9" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="189">
+      <c r="AA9" s="183">
         <f t="shared" ref="AA9" si="8">SUM(V9:V10,Y9:Y10)</f>
         <v>18</v>
       </c>
@@ -22490,7 +22563,7 @@
       <c r="X10" s="131"/>
       <c r="Y10" s="51"/>
       <c r="Z10" s="133"/>
-      <c r="AA10" s="189"/>
+      <c r="AA10" s="183"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" thickBot="1">
       <c r="A11" s="8"/>
@@ -22525,7 +22598,7 @@
       <c r="Z11" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA11" s="189">
+      <c r="AA11" s="183">
         <f t="shared" ref="AA11" si="9">SUM(V11:V12,Y11:Y12)</f>
         <v>18</v>
       </c>
@@ -22568,9 +22641,9 @@
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="O12" s="197"/>
-      <c r="P12" s="198"/>
-      <c r="Q12" s="199"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="187"/>
       <c r="T12" s="44"/>
       <c r="U12" s="130"/>
       <c r="V12" s="46"/>
@@ -22578,7 +22651,7 @@
       <c r="X12" s="130"/>
       <c r="Y12" s="46"/>
       <c r="Z12" s="73"/>
-      <c r="AA12" s="189"/>
+      <c r="AA12" s="183"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" thickBot="1">
       <c r="A13" s="8"/>
@@ -22611,7 +22684,7 @@
       <c r="Z13" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA13" s="189">
+      <c r="AA13" s="183">
         <f t="shared" ref="AA13" si="12">SUM(V13:V14,Y13:Y14)</f>
         <v>18</v>
       </c>
@@ -22633,7 +22706,7 @@
       <c r="X14" s="131"/>
       <c r="Y14" s="51"/>
       <c r="Z14" s="133"/>
-      <c r="AA14" s="189"/>
+      <c r="AA14" s="183"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="109"/>
@@ -22666,7 +22739,7 @@
       <c r="Z15" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="189">
+      <c r="AA15" s="183">
         <f t="shared" ref="AA15" si="13">SUM(V15:V16,Y15:Y16)</f>
         <v>18</v>
       </c>
@@ -22688,7 +22761,7 @@
       <c r="X16" s="130"/>
       <c r="Y16" s="46"/>
       <c r="Z16" s="73"/>
-      <c r="AA16" s="189"/>
+      <c r="AA16" s="183"/>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="8"/>
@@ -22721,7 +22794,7 @@
       <c r="Z17" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AA17" s="189">
+      <c r="AA17" s="183">
         <f t="shared" ref="AA17" si="14">SUM(V17:V18,Y17:Y18)</f>
         <v>16</v>
       </c>
@@ -22743,7 +22816,7 @@
       <c r="X18" s="136"/>
       <c r="Y18" s="77"/>
       <c r="Z18" s="138"/>
-      <c r="AA18" s="203"/>
+      <c r="AA18" s="184"/>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="8"/>
@@ -22900,6 +22973,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AA5:AA6"/>
     <mergeCell ref="AA17:AA18"/>
     <mergeCell ref="AA9:AA10"/>
     <mergeCell ref="AA11:AA12"/>
@@ -22907,12 +22986,6 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="AA13:AA14"/>
     <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AA5:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="Y20">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
